--- a/PlayerWeightsUpdated.xlsx
+++ b/PlayerWeightsUpdated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6eef7255c4c1f231/Documents/Dissertation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="8_{BCCE726F-DF55-4DE2-848C-AAE4BBF92A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1942AF-8279-485F-88F5-4072CBF443B5}"/>
+  <xr:revisionPtr revIDLastSave="1052" documentId="8_{BCCE726F-DF55-4DE2-848C-AAE4BBF92A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F429D896-0075-4773-9D84-4E6DC80A997E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC61D073-F013-47CD-A0F9-B1ECD9EB6319}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC61D073-F013-47CD-A0F9-B1ECD9EB6319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -16483,8 +16483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E11DF4-94E9-44FD-9735-62D51910DC82}">
   <dimension ref="A1:G2449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1681" workbookViewId="0">
-      <selection activeCell="F1702" sqref="F1702"/>
+    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
+      <selection activeCell="F2049" sqref="F2049"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57336,6 +57336,9 @@
       <c r="E1702" t="s">
         <v>1107</v>
       </c>
+      <c r="F1702">
+        <v>77</v>
+      </c>
       <c r="G1702">
         <f t="shared" si="26"/>
         <v>1701</v>
@@ -57357,6 +57360,9 @@
       <c r="E1703" t="s">
         <v>12</v>
       </c>
+      <c r="F1703">
+        <v>77</v>
+      </c>
       <c r="G1703">
         <f t="shared" si="26"/>
         <v>1702</v>
@@ -57378,6 +57384,9 @@
       <c r="E1704" t="s">
         <v>3797</v>
       </c>
+      <c r="F1704">
+        <v>86</v>
+      </c>
       <c r="G1704">
         <f t="shared" si="26"/>
         <v>1703</v>
@@ -57399,6 +57408,9 @@
       <c r="E1705" t="s">
         <v>3800</v>
       </c>
+      <c r="F1705">
+        <v>86</v>
+      </c>
       <c r="G1705">
         <f t="shared" si="26"/>
         <v>1704</v>
@@ -57420,6 +57432,9 @@
       <c r="E1706" t="s">
         <v>9</v>
       </c>
+      <c r="F1706">
+        <v>88</v>
+      </c>
       <c r="G1706">
         <f t="shared" si="26"/>
         <v>1705</v>
@@ -57441,6 +57456,9 @@
       <c r="E1707" t="s">
         <v>9</v>
       </c>
+      <c r="F1707">
+        <v>84</v>
+      </c>
       <c r="G1707">
         <f t="shared" si="26"/>
         <v>1706</v>
@@ -57462,6 +57480,9 @@
       <c r="E1708" t="s">
         <v>9</v>
       </c>
+      <c r="F1708">
+        <v>73</v>
+      </c>
       <c r="G1708">
         <f t="shared" si="26"/>
         <v>1707</v>
@@ -57483,6 +57504,9 @@
       <c r="E1709" t="s">
         <v>9</v>
       </c>
+      <c r="F1709">
+        <v>76</v>
+      </c>
       <c r="G1709">
         <f t="shared" si="26"/>
         <v>1708</v>
@@ -57504,6 +57528,9 @@
       <c r="E1710" t="s">
         <v>1067</v>
       </c>
+      <c r="F1710">
+        <v>68</v>
+      </c>
       <c r="G1710">
         <f t="shared" si="26"/>
         <v>1709</v>
@@ -57525,6 +57552,9 @@
       <c r="E1711" t="s">
         <v>1009</v>
       </c>
+      <c r="F1711">
+        <v>84</v>
+      </c>
       <c r="G1711">
         <f t="shared" si="26"/>
         <v>1710</v>
@@ -57546,6 +57576,9 @@
       <c r="E1712" t="s">
         <v>9</v>
       </c>
+      <c r="F1712">
+        <v>73</v>
+      </c>
       <c r="G1712">
         <f t="shared" si="26"/>
         <v>1711</v>
@@ -57567,6 +57600,9 @@
       <c r="E1713" t="s">
         <v>283</v>
       </c>
+      <c r="F1713">
+        <v>88</v>
+      </c>
       <c r="G1713">
         <f t="shared" si="26"/>
         <v>1712</v>
@@ -57588,6 +57624,9 @@
       <c r="E1714" t="s">
         <v>9</v>
       </c>
+      <c r="F1714">
+        <v>74</v>
+      </c>
       <c r="G1714">
         <f t="shared" si="26"/>
         <v>1713</v>
@@ -57609,6 +57648,9 @@
       <c r="E1715" t="s">
         <v>102</v>
       </c>
+      <c r="F1715">
+        <v>75</v>
+      </c>
       <c r="G1715">
         <f t="shared" si="26"/>
         <v>1714</v>
@@ -57630,6 +57672,9 @@
       <c r="E1716" t="s">
         <v>635</v>
       </c>
+      <c r="F1716">
+        <v>91</v>
+      </c>
       <c r="G1716">
         <f t="shared" si="26"/>
         <v>1715</v>
@@ -57651,6 +57696,9 @@
       <c r="E1717" t="s">
         <v>9</v>
       </c>
+      <c r="F1717">
+        <v>74</v>
+      </c>
       <c r="G1717">
         <f t="shared" si="26"/>
         <v>1716</v>
@@ -57672,6 +57720,9 @@
       <c r="E1718" t="s">
         <v>518</v>
       </c>
+      <c r="F1718">
+        <v>79</v>
+      </c>
       <c r="G1718">
         <f t="shared" si="26"/>
         <v>1717</v>
@@ -57693,6 +57744,9 @@
       <c r="E1719" t="s">
         <v>9</v>
       </c>
+      <c r="F1719">
+        <v>84</v>
+      </c>
       <c r="G1719">
         <f t="shared" si="26"/>
         <v>1718</v>
@@ -57714,6 +57768,9 @@
       <c r="E1720" t="s">
         <v>9</v>
       </c>
+      <c r="F1720">
+        <v>73</v>
+      </c>
       <c r="G1720">
         <f t="shared" si="26"/>
         <v>1719</v>
@@ -57735,6 +57792,9 @@
       <c r="E1721" t="s">
         <v>9</v>
       </c>
+      <c r="F1721">
+        <v>68</v>
+      </c>
       <c r="G1721">
         <f t="shared" si="26"/>
         <v>1720</v>
@@ -57756,6 +57816,9 @@
       <c r="E1722" t="s">
         <v>274</v>
       </c>
+      <c r="F1722">
+        <v>77</v>
+      </c>
       <c r="G1722">
         <f t="shared" si="26"/>
         <v>1721</v>
@@ -57777,6 +57840,9 @@
       <c r="E1723" t="s">
         <v>918</v>
       </c>
+      <c r="F1723">
+        <v>71</v>
+      </c>
       <c r="G1723">
         <f t="shared" si="26"/>
         <v>1722</v>
@@ -57798,6 +57864,9 @@
       <c r="E1724" t="s">
         <v>99</v>
       </c>
+      <c r="F1724">
+        <v>78</v>
+      </c>
       <c r="G1724">
         <f t="shared" si="26"/>
         <v>1723</v>
@@ -57819,6 +57888,9 @@
       <c r="E1725" t="s">
         <v>9</v>
       </c>
+      <c r="F1725">
+        <v>73</v>
+      </c>
       <c r="G1725">
         <f t="shared" si="26"/>
         <v>1724</v>
@@ -57840,6 +57912,9 @@
       <c r="E1726" t="s">
         <v>251</v>
       </c>
+      <c r="F1726">
+        <v>72</v>
+      </c>
       <c r="G1726">
         <f t="shared" si="26"/>
         <v>1725</v>
@@ -57861,6 +57936,9 @@
       <c r="E1727" t="s">
         <v>518</v>
       </c>
+      <c r="F1727">
+        <v>77</v>
+      </c>
       <c r="G1727">
         <f t="shared" si="26"/>
         <v>1726</v>
@@ -57882,6 +57960,9 @@
       <c r="E1728" t="s">
         <v>274</v>
       </c>
+      <c r="F1728">
+        <v>107</v>
+      </c>
       <c r="G1728">
         <f t="shared" si="26"/>
         <v>1727</v>
@@ -57903,6 +57984,9 @@
       <c r="E1729" t="s">
         <v>9</v>
       </c>
+      <c r="F1729">
+        <v>83</v>
+      </c>
       <c r="G1729">
         <f t="shared" si="26"/>
         <v>1728</v>
@@ -57924,6 +58008,9 @@
       <c r="E1730" t="s">
         <v>336</v>
       </c>
+      <c r="F1730">
+        <v>72</v>
+      </c>
       <c r="G1730">
         <f t="shared" si="26"/>
         <v>1729</v>
@@ -57945,6 +58032,9 @@
       <c r="E1731" t="s">
         <v>323</v>
       </c>
+      <c r="F1731">
+        <v>73</v>
+      </c>
       <c r="G1731">
         <f t="shared" si="26"/>
         <v>1730</v>
@@ -57966,6 +58056,9 @@
       <c r="E1732" t="s">
         <v>918</v>
       </c>
+      <c r="F1732">
+        <v>77</v>
+      </c>
       <c r="G1732">
         <f t="shared" si="26"/>
         <v>1731</v>
@@ -57987,6 +58080,9 @@
       <c r="E1733" t="s">
         <v>9</v>
       </c>
+      <c r="F1733">
+        <v>77</v>
+      </c>
       <c r="G1733">
         <f t="shared" ref="G1733:G1796" si="27">SUM(G1732 +1)</f>
         <v>1732</v>
@@ -58008,6 +58104,9 @@
       <c r="E1734" t="s">
         <v>218</v>
       </c>
+      <c r="F1734">
+        <v>68</v>
+      </c>
       <c r="G1734">
         <f t="shared" si="27"/>
         <v>1733</v>
@@ -58029,6 +58128,9 @@
       <c r="E1735" t="s">
         <v>635</v>
       </c>
+      <c r="F1735">
+        <v>70</v>
+      </c>
       <c r="G1735">
         <f t="shared" si="27"/>
         <v>1734</v>
@@ -58050,6 +58152,9 @@
       <c r="E1736" t="s">
         <v>518</v>
       </c>
+      <c r="F1736">
+        <v>83</v>
+      </c>
       <c r="G1736">
         <f t="shared" si="27"/>
         <v>1735</v>
@@ -58071,6 +58176,9 @@
       <c r="E1737" t="s">
         <v>1241</v>
       </c>
+      <c r="F1737">
+        <v>94</v>
+      </c>
       <c r="G1737">
         <f t="shared" si="27"/>
         <v>1736</v>
@@ -58092,6 +58200,9 @@
       <c r="E1738" t="s">
         <v>68</v>
       </c>
+      <c r="F1738">
+        <v>76</v>
+      </c>
       <c r="G1738">
         <f t="shared" si="27"/>
         <v>1737</v>
@@ -58113,6 +58224,9 @@
       <c r="E1739" t="s">
         <v>794</v>
       </c>
+      <c r="F1739">
+        <v>78</v>
+      </c>
       <c r="G1739">
         <f t="shared" si="27"/>
         <v>1738</v>
@@ -58134,6 +58248,9 @@
       <c r="E1740" t="s">
         <v>52</v>
       </c>
+      <c r="F1740">
+        <v>59</v>
+      </c>
       <c r="G1740">
         <f t="shared" si="27"/>
         <v>1739</v>
@@ -58155,6 +58272,9 @@
       <c r="E1741" t="s">
         <v>146</v>
       </c>
+      <c r="F1741">
+        <v>82</v>
+      </c>
       <c r="G1741">
         <f t="shared" si="27"/>
         <v>1740</v>
@@ -58176,6 +58296,9 @@
       <c r="E1742" t="s">
         <v>218</v>
       </c>
+      <c r="F1742">
+        <v>74</v>
+      </c>
       <c r="G1742">
         <f t="shared" si="27"/>
         <v>1741</v>
@@ -58197,6 +58320,9 @@
       <c r="E1743" t="s">
         <v>21</v>
       </c>
+      <c r="F1743">
+        <v>86</v>
+      </c>
       <c r="G1743">
         <f t="shared" si="27"/>
         <v>1742</v>
@@ -58218,6 +58344,9 @@
       <c r="E1744" t="s">
         <v>3879</v>
       </c>
+      <c r="F1744">
+        <v>73</v>
+      </c>
       <c r="G1744">
         <f t="shared" si="27"/>
         <v>1743</v>
@@ -58239,6 +58368,9 @@
       <c r="E1745" t="s">
         <v>380</v>
       </c>
+      <c r="F1745">
+        <v>73</v>
+      </c>
       <c r="G1745">
         <f t="shared" si="27"/>
         <v>1744</v>
@@ -58260,6 +58392,9 @@
       <c r="E1746" t="s">
         <v>1009</v>
       </c>
+      <c r="F1746">
+        <v>82</v>
+      </c>
       <c r="G1746">
         <f t="shared" si="27"/>
         <v>1745</v>
@@ -58281,6 +58416,9 @@
       <c r="E1747" t="s">
         <v>15</v>
       </c>
+      <c r="F1747">
+        <v>77</v>
+      </c>
       <c r="G1747">
         <f t="shared" si="27"/>
         <v>1746</v>
@@ -58302,6 +58440,9 @@
       <c r="E1748" t="s">
         <v>9</v>
       </c>
+      <c r="F1748">
+        <v>88</v>
+      </c>
       <c r="G1748">
         <f t="shared" si="27"/>
         <v>1747</v>
@@ -58323,6 +58464,9 @@
       <c r="E1749" t="s">
         <v>3890</v>
       </c>
+      <c r="F1749">
+        <v>64</v>
+      </c>
       <c r="G1749">
         <f t="shared" si="27"/>
         <v>1748</v>
@@ -58344,6 +58488,9 @@
       <c r="E1750" t="s">
         <v>9</v>
       </c>
+      <c r="F1750">
+        <v>84</v>
+      </c>
       <c r="G1750">
         <f t="shared" si="27"/>
         <v>1749</v>
@@ -58365,6 +58512,9 @@
       <c r="E1751" t="s">
         <v>9</v>
       </c>
+      <c r="F1751">
+        <v>74</v>
+      </c>
       <c r="G1751">
         <f t="shared" si="27"/>
         <v>1750</v>
@@ -58386,6 +58536,9 @@
       <c r="E1752" t="s">
         <v>648</v>
       </c>
+      <c r="F1752">
+        <v>84</v>
+      </c>
       <c r="G1752">
         <f t="shared" si="27"/>
         <v>1751</v>
@@ -58407,6 +58560,9 @@
       <c r="E1753" t="s">
         <v>9</v>
       </c>
+      <c r="F1753">
+        <v>74</v>
+      </c>
       <c r="G1753">
         <f t="shared" si="27"/>
         <v>1752</v>
@@ -58428,6 +58584,9 @@
       <c r="E1754" t="s">
         <v>3064</v>
       </c>
+      <c r="F1754">
+        <v>88</v>
+      </c>
       <c r="G1754">
         <f t="shared" si="27"/>
         <v>1753</v>
@@ -58449,6 +58608,9 @@
       <c r="E1755" t="s">
         <v>9</v>
       </c>
+      <c r="F1755">
+        <v>78</v>
+      </c>
       <c r="G1755">
         <f t="shared" si="27"/>
         <v>1754</v>
@@ -58470,6 +58632,9 @@
       <c r="E1756" t="s">
         <v>68</v>
       </c>
+      <c r="F1756">
+        <v>66</v>
+      </c>
       <c r="G1756">
         <f t="shared" si="27"/>
         <v>1755</v>
@@ -58491,6 +58656,9 @@
       <c r="E1757" t="s">
         <v>1107</v>
       </c>
+      <c r="F1757">
+        <v>82</v>
+      </c>
       <c r="G1757">
         <f t="shared" si="27"/>
         <v>1756</v>
@@ -58512,6 +58680,9 @@
       <c r="E1758" t="s">
         <v>3909</v>
       </c>
+      <c r="F1758">
+        <v>66</v>
+      </c>
       <c r="G1758">
         <f t="shared" si="27"/>
         <v>1757</v>
@@ -58533,6 +58704,9 @@
       <c r="E1759" t="s">
         <v>1467</v>
       </c>
+      <c r="F1759">
+        <v>70</v>
+      </c>
       <c r="G1759">
         <f t="shared" si="27"/>
         <v>1758</v>
@@ -58554,6 +58728,9 @@
       <c r="E1760" t="s">
         <v>9</v>
       </c>
+      <c r="F1760">
+        <v>77</v>
+      </c>
       <c r="G1760">
         <f t="shared" si="27"/>
         <v>1759</v>
@@ -58575,6 +58752,9 @@
       <c r="E1761" t="s">
         <v>323</v>
       </c>
+      <c r="F1761">
+        <v>66</v>
+      </c>
       <c r="G1761">
         <f t="shared" si="27"/>
         <v>1760</v>
@@ -58596,6 +58776,9 @@
       <c r="E1762" t="s">
         <v>3918</v>
       </c>
+      <c r="F1762">
+        <v>77</v>
+      </c>
       <c r="G1762">
         <f t="shared" si="27"/>
         <v>1761</v>
@@ -58617,6 +58800,9 @@
       <c r="E1763" t="s">
         <v>3921</v>
       </c>
+      <c r="F1763">
+        <v>74</v>
+      </c>
       <c r="G1763">
         <f t="shared" si="27"/>
         <v>1762</v>
@@ -58638,6 +58824,9 @@
       <c r="E1764" t="s">
         <v>9</v>
       </c>
+      <c r="F1764">
+        <v>66</v>
+      </c>
       <c r="G1764">
         <f t="shared" si="27"/>
         <v>1763</v>
@@ -58659,6 +58848,9 @@
       <c r="E1765" t="s">
         <v>9</v>
       </c>
+      <c r="F1765">
+        <v>72</v>
+      </c>
       <c r="G1765">
         <f t="shared" si="27"/>
         <v>1764</v>
@@ -58680,6 +58872,9 @@
       <c r="E1766" t="s">
         <v>9</v>
       </c>
+      <c r="F1766">
+        <v>79</v>
+      </c>
       <c r="G1766">
         <f t="shared" si="27"/>
         <v>1765</v>
@@ -58701,6 +58896,9 @@
       <c r="E1767" t="s">
         <v>9</v>
       </c>
+      <c r="F1767">
+        <v>93</v>
+      </c>
       <c r="G1767">
         <f t="shared" si="27"/>
         <v>1766</v>
@@ -58722,6 +58920,9 @@
       <c r="E1768" t="s">
         <v>79</v>
       </c>
+      <c r="F1768">
+        <v>68</v>
+      </c>
       <c r="G1768">
         <f t="shared" si="27"/>
         <v>1767</v>
@@ -58743,6 +58944,9 @@
       <c r="E1769" t="s">
         <v>323</v>
       </c>
+      <c r="F1769">
+        <v>68</v>
+      </c>
       <c r="G1769">
         <f t="shared" si="27"/>
         <v>1768</v>
@@ -58764,6 +58968,9 @@
       <c r="E1770" t="s">
         <v>9</v>
       </c>
+      <c r="F1770">
+        <v>77</v>
+      </c>
       <c r="G1770">
         <f t="shared" si="27"/>
         <v>1769</v>
@@ -58785,6 +58992,9 @@
       <c r="E1771" t="s">
         <v>9</v>
       </c>
+      <c r="F1771">
+        <v>91</v>
+      </c>
       <c r="G1771">
         <f t="shared" si="27"/>
         <v>1770</v>
@@ -58806,6 +59016,9 @@
       <c r="E1772" t="s">
         <v>9</v>
       </c>
+      <c r="F1772">
+        <v>77</v>
+      </c>
       <c r="G1772">
         <f t="shared" si="27"/>
         <v>1771</v>
@@ -58827,6 +59040,9 @@
       <c r="E1773" t="s">
         <v>2084</v>
       </c>
+      <c r="F1773">
+        <v>78</v>
+      </c>
       <c r="G1773">
         <f t="shared" si="27"/>
         <v>1772</v>
@@ -58848,6 +59064,9 @@
       <c r="E1774" t="s">
         <v>9</v>
       </c>
+      <c r="F1774">
+        <v>69</v>
+      </c>
       <c r="G1774">
         <f t="shared" si="27"/>
         <v>1773</v>
@@ -58869,6 +59088,9 @@
       <c r="E1775" t="s">
         <v>9</v>
       </c>
+      <c r="F1775">
+        <v>84</v>
+      </c>
       <c r="G1775">
         <f t="shared" si="27"/>
         <v>1774</v>
@@ -58890,6 +59112,9 @@
       <c r="E1776" t="s">
         <v>9</v>
       </c>
+      <c r="F1776">
+        <v>73</v>
+      </c>
       <c r="G1776">
         <f t="shared" si="27"/>
         <v>1775</v>
@@ -58911,6 +59136,9 @@
       <c r="E1777" t="s">
         <v>9</v>
       </c>
+      <c r="F1777">
+        <v>78</v>
+      </c>
       <c r="G1777">
         <f t="shared" si="27"/>
         <v>1776</v>
@@ -58932,6 +59160,9 @@
       <c r="E1778" t="s">
         <v>198</v>
       </c>
+      <c r="F1778">
+        <v>73</v>
+      </c>
       <c r="G1778">
         <f t="shared" si="27"/>
         <v>1777</v>
@@ -58953,6 +59184,9 @@
       <c r="E1779" t="s">
         <v>9</v>
       </c>
+      <c r="F1779">
+        <v>69</v>
+      </c>
       <c r="G1779">
         <f t="shared" si="27"/>
         <v>1778</v>
@@ -58974,6 +59208,9 @@
       <c r="E1780" t="s">
         <v>9</v>
       </c>
+      <c r="F1780">
+        <v>73</v>
+      </c>
       <c r="G1780">
         <f t="shared" si="27"/>
         <v>1779</v>
@@ -58995,6 +59232,9 @@
       <c r="E1781" t="s">
         <v>68</v>
       </c>
+      <c r="F1781">
+        <v>70</v>
+      </c>
       <c r="G1781">
         <f t="shared" si="27"/>
         <v>1780</v>
@@ -59016,6 +59256,9 @@
       <c r="E1782" t="s">
         <v>635</v>
       </c>
+      <c r="F1782">
+        <v>79</v>
+      </c>
       <c r="G1782">
         <f t="shared" si="27"/>
         <v>1781</v>
@@ -59037,6 +59280,9 @@
       <c r="E1783" t="s">
         <v>3962</v>
       </c>
+      <c r="F1783">
+        <v>73</v>
+      </c>
       <c r="G1783">
         <f t="shared" si="27"/>
         <v>1782</v>
@@ -59058,6 +59304,9 @@
       <c r="E1784" t="s">
         <v>380</v>
       </c>
+      <c r="F1784">
+        <v>73</v>
+      </c>
       <c r="G1784">
         <f t="shared" si="27"/>
         <v>1783</v>
@@ -59079,6 +59328,9 @@
       <c r="E1785" t="s">
         <v>283</v>
       </c>
+      <c r="F1785">
+        <v>77</v>
+      </c>
       <c r="G1785">
         <f t="shared" si="27"/>
         <v>1784</v>
@@ -59100,6 +59352,9 @@
       <c r="E1786" t="s">
         <v>99</v>
       </c>
+      <c r="F1786">
+        <v>70</v>
+      </c>
       <c r="G1786">
         <f t="shared" si="27"/>
         <v>1785</v>
@@ -59121,6 +59376,9 @@
       <c r="E1787" t="s">
         <v>3971</v>
       </c>
+      <c r="F1787">
+        <v>74</v>
+      </c>
       <c r="G1787">
         <f t="shared" si="27"/>
         <v>1786</v>
@@ -59142,6 +59400,9 @@
       <c r="E1788" t="s">
         <v>3519</v>
       </c>
+      <c r="F1788">
+        <v>73</v>
+      </c>
       <c r="G1788">
         <f t="shared" si="27"/>
         <v>1787</v>
@@ -59163,6 +59424,9 @@
       <c r="E1789" t="s">
         <v>1000</v>
       </c>
+      <c r="F1789">
+        <v>82</v>
+      </c>
       <c r="G1789">
         <f t="shared" si="27"/>
         <v>1788</v>
@@ -59184,6 +59448,9 @@
       <c r="E1790" t="s">
         <v>280</v>
       </c>
+      <c r="F1790">
+        <v>68</v>
+      </c>
       <c r="G1790">
         <f t="shared" si="27"/>
         <v>1789</v>
@@ -59205,6 +59472,9 @@
       <c r="E1791" t="s">
         <v>283</v>
       </c>
+      <c r="F1791">
+        <v>74</v>
+      </c>
       <c r="G1791">
         <f t="shared" si="27"/>
         <v>1790</v>
@@ -59226,6 +59496,9 @@
       <c r="E1792" t="s">
         <v>1860</v>
       </c>
+      <c r="F1792">
+        <v>79</v>
+      </c>
       <c r="G1792">
         <f t="shared" si="27"/>
         <v>1791</v>
@@ -59247,6 +59520,9 @@
       <c r="E1793" t="s">
         <v>402</v>
       </c>
+      <c r="F1793">
+        <v>86</v>
+      </c>
       <c r="G1793">
         <f t="shared" si="27"/>
         <v>1792</v>
@@ -59268,6 +59544,9 @@
       <c r="E1794" t="s">
         <v>9</v>
       </c>
+      <c r="F1794">
+        <v>80</v>
+      </c>
       <c r="G1794">
         <f t="shared" si="27"/>
         <v>1793</v>
@@ -59289,6 +59568,9 @@
       <c r="E1795" t="s">
         <v>52</v>
       </c>
+      <c r="F1795">
+        <v>73</v>
+      </c>
       <c r="G1795">
         <f t="shared" si="27"/>
         <v>1794</v>
@@ -59310,6 +59592,9 @@
       <c r="E1796" t="s">
         <v>1871</v>
       </c>
+      <c r="F1796">
+        <v>77</v>
+      </c>
       <c r="G1796">
         <f t="shared" si="27"/>
         <v>1795</v>
@@ -59331,6 +59616,9 @@
       <c r="E1797" t="s">
         <v>52</v>
       </c>
+      <c r="F1797">
+        <v>73</v>
+      </c>
       <c r="G1797">
         <f t="shared" ref="G1797:G1860" si="28">SUM(G1796 +1)</f>
         <v>1796</v>
@@ -59352,6 +59640,9 @@
       <c r="E1798" t="s">
         <v>35</v>
       </c>
+      <c r="F1798">
+        <v>76</v>
+      </c>
       <c r="G1798">
         <f t="shared" si="28"/>
         <v>1797</v>
@@ -59373,6 +59664,9 @@
       <c r="E1799" t="s">
         <v>3996</v>
       </c>
+      <c r="F1799">
+        <v>73</v>
+      </c>
       <c r="G1799">
         <f t="shared" si="28"/>
         <v>1798</v>
@@ -59394,6 +59688,9 @@
       <c r="E1800" t="s">
         <v>9</v>
       </c>
+      <c r="F1800">
+        <v>77</v>
+      </c>
       <c r="G1800">
         <f t="shared" si="28"/>
         <v>1799</v>
@@ -59415,6 +59712,9 @@
       <c r="E1801" t="s">
         <v>4001</v>
       </c>
+      <c r="F1801">
+        <v>94</v>
+      </c>
       <c r="G1801">
         <f t="shared" si="28"/>
         <v>1800</v>
@@ -59436,6 +59736,9 @@
       <c r="E1802" t="s">
         <v>323</v>
       </c>
+      <c r="F1802">
+        <v>84</v>
+      </c>
       <c r="G1802">
         <f t="shared" si="28"/>
         <v>1801</v>
@@ -59457,6 +59760,9 @@
       <c r="E1803" t="s">
         <v>2329</v>
       </c>
+      <c r="F1803">
+        <v>76</v>
+      </c>
       <c r="G1803">
         <f t="shared" si="28"/>
         <v>1802</v>
@@ -59478,6 +59784,9 @@
       <c r="E1804" t="s">
         <v>587</v>
       </c>
+      <c r="F1804">
+        <v>72</v>
+      </c>
       <c r="G1804">
         <f t="shared" si="28"/>
         <v>1803</v>
@@ -59499,6 +59808,9 @@
       <c r="E1805" t="s">
         <v>4010</v>
       </c>
+      <c r="F1805">
+        <v>68</v>
+      </c>
       <c r="G1805">
         <f t="shared" si="28"/>
         <v>1804</v>
@@ -59520,6 +59832,9 @@
       <c r="E1806" t="s">
         <v>9</v>
       </c>
+      <c r="F1806">
+        <v>70</v>
+      </c>
       <c r="G1806">
         <f t="shared" si="28"/>
         <v>1805</v>
@@ -59541,6 +59856,9 @@
       <c r="E1807" t="s">
         <v>2517</v>
       </c>
+      <c r="F1807">
+        <v>79</v>
+      </c>
       <c r="G1807">
         <f t="shared" si="28"/>
         <v>1806</v>
@@ -59562,6 +59880,9 @@
       <c r="E1808" t="s">
         <v>79</v>
       </c>
+      <c r="F1808">
+        <v>73</v>
+      </c>
       <c r="G1808">
         <f t="shared" si="28"/>
         <v>1807</v>
@@ -59583,6 +59904,9 @@
       <c r="E1809" t="s">
         <v>4019</v>
       </c>
+      <c r="F1809">
+        <v>73</v>
+      </c>
       <c r="G1809">
         <f t="shared" si="28"/>
         <v>1808</v>
@@ -59604,6 +59928,9 @@
       <c r="E1810" t="s">
         <v>52</v>
       </c>
+      <c r="F1810">
+        <v>69</v>
+      </c>
       <c r="G1810">
         <f t="shared" si="28"/>
         <v>1809</v>
@@ -59625,6 +59952,9 @@
       <c r="E1811" t="s">
         <v>52</v>
       </c>
+      <c r="F1811">
+        <v>82</v>
+      </c>
       <c r="G1811">
         <f t="shared" si="28"/>
         <v>1810</v>
@@ -59646,6 +59976,9 @@
       <c r="E1812" t="s">
         <v>4026</v>
       </c>
+      <c r="F1812">
+        <v>84</v>
+      </c>
       <c r="G1812">
         <f t="shared" si="28"/>
         <v>1811</v>
@@ -59667,6 +60000,9 @@
       <c r="E1813" t="s">
         <v>88</v>
       </c>
+      <c r="F1813">
+        <v>64</v>
+      </c>
       <c r="G1813">
         <f t="shared" si="28"/>
         <v>1812</v>
@@ -59688,6 +60024,9 @@
       <c r="E1814" t="s">
         <v>190</v>
       </c>
+      <c r="F1814">
+        <v>72</v>
+      </c>
       <c r="G1814">
         <f t="shared" si="28"/>
         <v>1813</v>
@@ -59709,6 +60048,9 @@
       <c r="E1815" t="s">
         <v>190</v>
       </c>
+      <c r="F1815">
+        <v>73</v>
+      </c>
       <c r="G1815">
         <f t="shared" si="28"/>
         <v>1814</v>
@@ -59730,6 +60072,9 @@
       <c r="E1816" t="s">
         <v>35</v>
       </c>
+      <c r="F1816">
+        <v>68</v>
+      </c>
       <c r="G1816">
         <f t="shared" si="28"/>
         <v>1815</v>
@@ -59751,6 +60096,9 @@
       <c r="E1817" t="s">
         <v>88</v>
       </c>
+      <c r="F1817">
+        <v>67</v>
+      </c>
       <c r="G1817">
         <f t="shared" si="28"/>
         <v>1816</v>
@@ -59772,6 +60120,9 @@
       <c r="E1818" t="s">
         <v>68</v>
       </c>
+      <c r="F1818">
+        <v>79</v>
+      </c>
       <c r="G1818">
         <f t="shared" si="28"/>
         <v>1817</v>
@@ -59793,6 +60144,9 @@
       <c r="E1819" t="s">
         <v>4041</v>
       </c>
+      <c r="F1819">
+        <v>82</v>
+      </c>
       <c r="G1819">
         <f t="shared" si="28"/>
         <v>1818</v>
@@ -59814,6 +60168,9 @@
       <c r="E1820" t="s">
         <v>9</v>
       </c>
+      <c r="F1820">
+        <v>79</v>
+      </c>
       <c r="G1820">
         <f t="shared" si="28"/>
         <v>1819</v>
@@ -59835,6 +60192,9 @@
       <c r="E1821" t="s">
         <v>9</v>
       </c>
+      <c r="F1821">
+        <v>79</v>
+      </c>
       <c r="G1821">
         <f t="shared" si="28"/>
         <v>1820</v>
@@ -59856,6 +60216,9 @@
       <c r="E1822" t="s">
         <v>99</v>
       </c>
+      <c r="F1822">
+        <v>79</v>
+      </c>
       <c r="G1822">
         <f t="shared" si="28"/>
         <v>1821</v>
@@ -59877,6 +60240,9 @@
       <c r="E1823" t="s">
         <v>9</v>
       </c>
+      <c r="F1823">
+        <v>74</v>
+      </c>
       <c r="G1823">
         <f t="shared" si="28"/>
         <v>1822</v>
@@ -59898,6 +60264,9 @@
       <c r="E1824" t="s">
         <v>4052</v>
       </c>
+      <c r="F1824">
+        <v>73</v>
+      </c>
       <c r="G1824">
         <f t="shared" si="28"/>
         <v>1823</v>
@@ -59919,6 +60288,9 @@
       <c r="E1825" t="s">
         <v>274</v>
       </c>
+      <c r="F1825">
+        <v>79</v>
+      </c>
       <c r="G1825">
         <f t="shared" si="28"/>
         <v>1824</v>
@@ -59940,6 +60312,9 @@
       <c r="E1826" t="s">
         <v>52</v>
       </c>
+      <c r="F1826">
+        <v>70</v>
+      </c>
       <c r="G1826">
         <f t="shared" si="28"/>
         <v>1825</v>
@@ -59961,6 +60336,9 @@
       <c r="E1827" t="s">
         <v>2591</v>
       </c>
+      <c r="F1827">
+        <v>63</v>
+      </c>
       <c r="G1827">
         <f t="shared" si="28"/>
         <v>1826</v>
@@ -59982,6 +60360,9 @@
       <c r="E1828" t="s">
         <v>274</v>
       </c>
+      <c r="F1828">
+        <v>77</v>
+      </c>
       <c r="G1828">
         <f t="shared" si="28"/>
         <v>1827</v>
@@ -60003,6 +60384,9 @@
       <c r="E1829" t="s">
         <v>686</v>
       </c>
+      <c r="F1829">
+        <v>75</v>
+      </c>
       <c r="G1829">
         <f t="shared" si="28"/>
         <v>1828</v>
@@ -60024,6 +60408,9 @@
       <c r="E1830" t="s">
         <v>221</v>
       </c>
+      <c r="F1830">
+        <v>96</v>
+      </c>
       <c r="G1830">
         <f t="shared" si="28"/>
         <v>1829</v>
@@ -60045,6 +60432,9 @@
       <c r="E1831" t="s">
         <v>52</v>
       </c>
+      <c r="F1831">
+        <v>78</v>
+      </c>
       <c r="G1831">
         <f t="shared" si="28"/>
         <v>1830</v>
@@ -60066,6 +60456,9 @@
       <c r="E1832" t="s">
         <v>1009</v>
       </c>
+      <c r="F1832">
+        <v>70</v>
+      </c>
       <c r="G1832">
         <f t="shared" si="28"/>
         <v>1831</v>
@@ -60087,6 +60480,9 @@
       <c r="E1833" t="s">
         <v>2084</v>
       </c>
+      <c r="F1833">
+        <v>73</v>
+      </c>
       <c r="G1833">
         <f t="shared" si="28"/>
         <v>1832</v>
@@ -60108,6 +60504,9 @@
       <c r="E1834" t="s">
         <v>274</v>
       </c>
+      <c r="F1834">
+        <v>82</v>
+      </c>
       <c r="G1834">
         <f t="shared" si="28"/>
         <v>1833</v>
@@ -60129,6 +60528,9 @@
       <c r="E1835" t="s">
         <v>3493</v>
       </c>
+      <c r="F1835">
+        <v>73</v>
+      </c>
       <c r="G1835">
         <f t="shared" si="28"/>
         <v>1834</v>
@@ -60150,6 +60552,9 @@
       <c r="E1836" t="s">
         <v>1072</v>
       </c>
+      <c r="F1836">
+        <v>70</v>
+      </c>
       <c r="G1836">
         <f t="shared" si="28"/>
         <v>1835</v>
@@ -60171,6 +60576,9 @@
       <c r="E1837" t="s">
         <v>9</v>
       </c>
+      <c r="F1837">
+        <v>73</v>
+      </c>
       <c r="G1837">
         <f t="shared" si="28"/>
         <v>1836</v>
@@ -60192,6 +60600,9 @@
       <c r="E1838" t="s">
         <v>283</v>
       </c>
+      <c r="F1838">
+        <v>80</v>
+      </c>
       <c r="G1838">
         <f t="shared" si="28"/>
         <v>1837</v>
@@ -60213,6 +60624,9 @@
       <c r="E1839" t="s">
         <v>82</v>
       </c>
+      <c r="F1839">
+        <v>78</v>
+      </c>
       <c r="G1839">
         <f t="shared" si="28"/>
         <v>1838</v>
@@ -60234,6 +60648,9 @@
       <c r="E1840" t="s">
         <v>9</v>
       </c>
+      <c r="F1840">
+        <v>73</v>
+      </c>
       <c r="G1840">
         <f t="shared" si="28"/>
         <v>1839</v>
@@ -60255,6 +60672,9 @@
       <c r="E1841" t="s">
         <v>4087</v>
       </c>
+      <c r="F1841">
+        <v>80</v>
+      </c>
       <c r="G1841">
         <f t="shared" si="28"/>
         <v>1840</v>
@@ -60276,6 +60696,9 @@
       <c r="E1842" t="s">
         <v>477</v>
       </c>
+      <c r="F1842">
+        <v>70</v>
+      </c>
       <c r="G1842">
         <f t="shared" si="28"/>
         <v>1841</v>
@@ -60297,6 +60720,9 @@
       <c r="E1843" t="s">
         <v>655</v>
       </c>
+      <c r="F1843">
+        <v>88</v>
+      </c>
       <c r="G1843">
         <f t="shared" si="28"/>
         <v>1842</v>
@@ -60318,6 +60744,9 @@
       <c r="E1844" t="s">
         <v>9</v>
       </c>
+      <c r="F1844">
+        <v>80</v>
+      </c>
       <c r="G1844">
         <f t="shared" si="28"/>
         <v>1843</v>
@@ -60339,6 +60768,9 @@
       <c r="E1845" t="s">
         <v>274</v>
       </c>
+      <c r="F1845">
+        <v>84</v>
+      </c>
       <c r="G1845">
         <f t="shared" si="28"/>
         <v>1844</v>
@@ -60360,6 +60792,9 @@
       <c r="E1846" t="s">
         <v>9</v>
       </c>
+      <c r="F1846">
+        <v>94</v>
+      </c>
       <c r="G1846">
         <f t="shared" si="28"/>
         <v>1845</v>
@@ -60381,6 +60816,9 @@
       <c r="E1847" t="s">
         <v>9</v>
       </c>
+      <c r="F1847">
+        <v>68</v>
+      </c>
       <c r="G1847">
         <f t="shared" si="28"/>
         <v>1846</v>
@@ -60402,6 +60840,9 @@
       <c r="E1848" t="s">
         <v>380</v>
       </c>
+      <c r="F1848">
+        <v>72</v>
+      </c>
       <c r="G1848">
         <f t="shared" si="28"/>
         <v>1847</v>
@@ -60423,6 +60864,9 @@
       <c r="E1849" t="s">
         <v>4104</v>
       </c>
+      <c r="F1849">
+        <v>80</v>
+      </c>
       <c r="G1849">
         <f t="shared" si="28"/>
         <v>1848</v>
@@ -60444,6 +60888,9 @@
       <c r="E1850" t="s">
         <v>380</v>
       </c>
+      <c r="F1850">
+        <v>76</v>
+      </c>
       <c r="G1850">
         <f t="shared" si="28"/>
         <v>1849</v>
@@ -60465,6 +60912,9 @@
       <c r="E1851" t="s">
         <v>9</v>
       </c>
+      <c r="F1851">
+        <v>94</v>
+      </c>
       <c r="G1851">
         <f t="shared" si="28"/>
         <v>1850</v>
@@ -60486,6 +60936,9 @@
       <c r="E1852" t="s">
         <v>9</v>
       </c>
+      <c r="F1852">
+        <v>73</v>
+      </c>
       <c r="G1852">
         <f t="shared" si="28"/>
         <v>1851</v>
@@ -60507,6 +60960,9 @@
       <c r="E1853" t="s">
         <v>9</v>
       </c>
+      <c r="F1853">
+        <v>74</v>
+      </c>
       <c r="G1853">
         <f t="shared" si="28"/>
         <v>1852</v>
@@ -60528,6 +60984,9 @@
       <c r="E1854" t="s">
         <v>158</v>
       </c>
+      <c r="F1854">
+        <v>70</v>
+      </c>
       <c r="G1854">
         <f t="shared" si="28"/>
         <v>1853</v>
@@ -60549,6 +61008,9 @@
       <c r="E1855" t="s">
         <v>635</v>
       </c>
+      <c r="F1855">
+        <v>77</v>
+      </c>
       <c r="G1855">
         <f t="shared" si="28"/>
         <v>1854</v>
@@ -60570,6 +61032,9 @@
       <c r="E1856" t="s">
         <v>635</v>
       </c>
+      <c r="F1856">
+        <v>73</v>
+      </c>
       <c r="G1856">
         <f t="shared" si="28"/>
         <v>1855</v>
@@ -60591,6 +61056,9 @@
       <c r="E1857" t="s">
         <v>221</v>
       </c>
+      <c r="F1857">
+        <v>76</v>
+      </c>
       <c r="G1857">
         <f t="shared" si="28"/>
         <v>1856</v>
@@ -60612,6 +61080,9 @@
       <c r="E1858" t="s">
         <v>79</v>
       </c>
+      <c r="F1858">
+        <v>84</v>
+      </c>
       <c r="G1858">
         <f t="shared" si="28"/>
         <v>1857</v>
@@ -60633,6 +61104,9 @@
       <c r="E1859" t="s">
         <v>615</v>
       </c>
+      <c r="F1859">
+        <v>66</v>
+      </c>
       <c r="G1859">
         <f t="shared" si="28"/>
         <v>1858</v>
@@ -60654,6 +61128,9 @@
       <c r="E1860" t="s">
         <v>1642</v>
       </c>
+      <c r="F1860">
+        <v>91</v>
+      </c>
       <c r="G1860">
         <f t="shared" si="28"/>
         <v>1859</v>
@@ -60675,6 +61152,9 @@
       <c r="E1861" t="s">
         <v>9</v>
       </c>
+      <c r="F1861">
+        <v>79</v>
+      </c>
       <c r="G1861">
         <f t="shared" ref="G1861:G1924" si="29">SUM(G1860 +1)</f>
         <v>1860</v>
@@ -60696,6 +61176,9 @@
       <c r="E1862" t="s">
         <v>9</v>
       </c>
+      <c r="F1862">
+        <v>79</v>
+      </c>
       <c r="G1862">
         <f t="shared" si="29"/>
         <v>1861</v>
@@ -60717,6 +61200,9 @@
       <c r="E1863" t="s">
         <v>9</v>
       </c>
+      <c r="F1863">
+        <v>75</v>
+      </c>
       <c r="G1863">
         <f t="shared" si="29"/>
         <v>1862</v>
@@ -60738,6 +61224,9 @@
       <c r="E1864" t="s">
         <v>9</v>
       </c>
+      <c r="F1864">
+        <v>79</v>
+      </c>
       <c r="G1864">
         <f t="shared" si="29"/>
         <v>1863</v>
@@ -60759,6 +61248,9 @@
       <c r="E1865" t="s">
         <v>393</v>
       </c>
+      <c r="F1865">
+        <v>70</v>
+      </c>
       <c r="G1865">
         <f t="shared" si="29"/>
         <v>1864</v>
@@ -60780,6 +61272,9 @@
       <c r="E1866" t="s">
         <v>635</v>
       </c>
+      <c r="F1866">
+        <v>83</v>
+      </c>
       <c r="G1866">
         <f t="shared" si="29"/>
         <v>1865</v>
@@ -60801,6 +61296,9 @@
       <c r="E1867" t="s">
         <v>645</v>
       </c>
+      <c r="F1867">
+        <v>70</v>
+      </c>
       <c r="G1867">
         <f t="shared" si="29"/>
         <v>1866</v>
@@ -60822,6 +61320,9 @@
       <c r="E1868" t="s">
         <v>2329</v>
       </c>
+      <c r="F1868">
+        <v>72</v>
+      </c>
       <c r="G1868">
         <f t="shared" si="29"/>
         <v>1867</v>
@@ -60843,6 +61344,9 @@
       <c r="E1869" t="s">
         <v>9</v>
       </c>
+      <c r="F1869">
+        <v>79</v>
+      </c>
       <c r="G1869">
         <f t="shared" si="29"/>
         <v>1868</v>
@@ -60864,6 +61368,9 @@
       <c r="E1870" t="s">
         <v>24</v>
       </c>
+      <c r="F1870">
+        <v>64</v>
+      </c>
       <c r="G1870">
         <f t="shared" si="29"/>
         <v>1869</v>
@@ -60885,6 +61392,9 @@
       <c r="E1871" t="s">
         <v>693</v>
       </c>
+      <c r="F1871">
+        <v>70</v>
+      </c>
       <c r="G1871">
         <f t="shared" si="29"/>
         <v>1870</v>
@@ -60906,6 +61416,9 @@
       <c r="E1872" t="s">
         <v>648</v>
       </c>
+      <c r="F1872">
+        <v>73</v>
+      </c>
       <c r="G1872">
         <f t="shared" si="29"/>
         <v>1871</v>
@@ -60927,6 +61440,9 @@
       <c r="E1873" t="s">
         <v>1492</v>
       </c>
+      <c r="F1873">
+        <v>84</v>
+      </c>
       <c r="G1873">
         <f t="shared" si="29"/>
         <v>1872</v>
@@ -60948,6 +61464,9 @@
       <c r="E1874" t="s">
         <v>129</v>
       </c>
+      <c r="F1874">
+        <v>73</v>
+      </c>
       <c r="G1874">
         <f t="shared" si="29"/>
         <v>1873</v>
@@ -60969,6 +61488,9 @@
       <c r="E1875" t="s">
         <v>9</v>
       </c>
+      <c r="F1875">
+        <v>78</v>
+      </c>
       <c r="G1875">
         <f t="shared" si="29"/>
         <v>1874</v>
@@ -60990,6 +61512,9 @@
       <c r="E1876" t="s">
         <v>380</v>
       </c>
+      <c r="F1876">
+        <v>79</v>
+      </c>
       <c r="G1876">
         <f t="shared" si="29"/>
         <v>1875</v>
@@ -61011,6 +61536,9 @@
       <c r="E1877" t="s">
         <v>9</v>
       </c>
+      <c r="F1877">
+        <v>79</v>
+      </c>
       <c r="G1877">
         <f t="shared" si="29"/>
         <v>1876</v>
@@ -61032,6 +61560,9 @@
       <c r="E1878" t="s">
         <v>749</v>
       </c>
+      <c r="F1878">
+        <v>82</v>
+      </c>
       <c r="G1878">
         <f t="shared" si="29"/>
         <v>1877</v>
@@ -61053,6 +61584,9 @@
       <c r="E1879" t="s">
         <v>60</v>
       </c>
+      <c r="F1879">
+        <v>74</v>
+      </c>
       <c r="G1879">
         <f t="shared" si="29"/>
         <v>1878</v>
@@ -61074,6 +61608,9 @@
       <c r="E1880" t="s">
         <v>9</v>
       </c>
+      <c r="F1880">
+        <v>73</v>
+      </c>
       <c r="G1880">
         <f t="shared" si="29"/>
         <v>1879</v>
@@ -61095,6 +61632,9 @@
       <c r="E1881" t="s">
         <v>655</v>
       </c>
+      <c r="F1881">
+        <v>69</v>
+      </c>
       <c r="G1881">
         <f t="shared" si="29"/>
         <v>1880</v>
@@ -61116,6 +61656,9 @@
       <c r="E1882" t="s">
         <v>323</v>
       </c>
+      <c r="F1882">
+        <v>73</v>
+      </c>
       <c r="G1882">
         <f t="shared" si="29"/>
         <v>1881</v>
@@ -61137,6 +61680,9 @@
       <c r="E1883" t="s">
         <v>146</v>
       </c>
+      <c r="F1883">
+        <v>73</v>
+      </c>
       <c r="G1883">
         <f t="shared" si="29"/>
         <v>1882</v>
@@ -61158,6 +61704,9 @@
       <c r="E1884" t="s">
         <v>4175</v>
       </c>
+      <c r="F1884">
+        <v>69</v>
+      </c>
       <c r="G1884">
         <f t="shared" si="29"/>
         <v>1883</v>
@@ -61179,6 +61728,9 @@
       <c r="E1885" t="s">
         <v>63</v>
       </c>
+      <c r="F1885">
+        <v>73</v>
+      </c>
       <c r="G1885">
         <f t="shared" si="29"/>
         <v>1884</v>
@@ -61200,6 +61752,9 @@
       <c r="E1886" t="s">
         <v>323</v>
       </c>
+      <c r="F1886">
+        <v>72</v>
+      </c>
       <c r="G1886">
         <f t="shared" si="29"/>
         <v>1885</v>
@@ -61221,6 +61776,9 @@
       <c r="E1887" t="s">
         <v>4041</v>
       </c>
+      <c r="F1887">
+        <v>68</v>
+      </c>
       <c r="G1887">
         <f t="shared" si="29"/>
         <v>1886</v>
@@ -61242,6 +61800,9 @@
       <c r="E1888" t="s">
         <v>9</v>
       </c>
+      <c r="F1888">
+        <v>76</v>
+      </c>
       <c r="G1888">
         <f t="shared" si="29"/>
         <v>1887</v>
@@ -61263,6 +61824,9 @@
       <c r="E1889" t="s">
         <v>9</v>
       </c>
+      <c r="F1889">
+        <v>79</v>
+      </c>
       <c r="G1889">
         <f t="shared" si="29"/>
         <v>1888</v>
@@ -61284,6 +61848,9 @@
       <c r="E1890" t="s">
         <v>190</v>
       </c>
+      <c r="F1890">
+        <v>79</v>
+      </c>
       <c r="G1890">
         <f t="shared" si="29"/>
         <v>1889</v>
@@ -61305,6 +61872,9 @@
       <c r="E1891" t="s">
         <v>24</v>
       </c>
+      <c r="F1891">
+        <v>73</v>
+      </c>
       <c r="G1891">
         <f t="shared" si="29"/>
         <v>1890</v>
@@ -61326,6 +61896,9 @@
       <c r="E1892" t="s">
         <v>52</v>
       </c>
+      <c r="F1892">
+        <v>71</v>
+      </c>
       <c r="G1892">
         <f t="shared" si="29"/>
         <v>1891</v>
@@ -61347,6 +61920,9 @@
       <c r="E1893" t="s">
         <v>2039</v>
       </c>
+      <c r="F1893">
+        <v>71</v>
+      </c>
       <c r="G1893">
         <f t="shared" si="29"/>
         <v>1892</v>
@@ -61368,6 +61944,9 @@
       <c r="E1894" t="s">
         <v>635</v>
       </c>
+      <c r="F1894">
+        <v>90</v>
+      </c>
       <c r="G1894">
         <f t="shared" si="29"/>
         <v>1893</v>
@@ -61389,6 +61968,9 @@
       <c r="E1895" t="s">
         <v>4198</v>
       </c>
+      <c r="F1895">
+        <v>77</v>
+      </c>
       <c r="G1895">
         <f t="shared" si="29"/>
         <v>1894</v>
@@ -61410,6 +61992,9 @@
       <c r="E1896" t="s">
         <v>256</v>
       </c>
+      <c r="F1896">
+        <v>84</v>
+      </c>
       <c r="G1896">
         <f t="shared" si="29"/>
         <v>1895</v>
@@ -61431,6 +62016,9 @@
       <c r="E1897" t="s">
         <v>190</v>
       </c>
+      <c r="F1897">
+        <v>73</v>
+      </c>
       <c r="G1897">
         <f t="shared" si="29"/>
         <v>1896</v>
@@ -61452,6 +62040,9 @@
       <c r="E1898" t="s">
         <v>4205</v>
       </c>
+      <c r="F1898">
+        <v>77</v>
+      </c>
       <c r="G1898">
         <f t="shared" si="29"/>
         <v>1897</v>
@@ -61473,6 +62064,9 @@
       <c r="E1899" t="s">
         <v>4208</v>
       </c>
+      <c r="F1899">
+        <v>83</v>
+      </c>
       <c r="G1899">
         <f t="shared" si="29"/>
         <v>1898</v>
@@ -61494,6 +62088,9 @@
       <c r="E1900" t="s">
         <v>4211</v>
       </c>
+      <c r="F1900">
+        <v>78</v>
+      </c>
       <c r="G1900">
         <f t="shared" si="29"/>
         <v>1899</v>
@@ -61515,6 +62112,9 @@
       <c r="E1901" t="s">
         <v>2448</v>
       </c>
+      <c r="F1901">
+        <v>83</v>
+      </c>
       <c r="G1901">
         <f t="shared" si="29"/>
         <v>1900</v>
@@ -61536,6 +62136,9 @@
       <c r="E1902" t="s">
         <v>2596</v>
       </c>
+      <c r="F1902">
+        <v>73</v>
+      </c>
       <c r="G1902">
         <f t="shared" si="29"/>
         <v>1901</v>
@@ -61557,6 +62160,9 @@
       <c r="E1903" t="s">
         <v>1053</v>
       </c>
+      <c r="F1903">
+        <v>94</v>
+      </c>
       <c r="G1903">
         <f t="shared" si="29"/>
         <v>1902</v>
@@ -61578,6 +62184,9 @@
       <c r="E1904" t="s">
         <v>518</v>
       </c>
+      <c r="F1904">
+        <v>77</v>
+      </c>
       <c r="G1904">
         <f t="shared" si="29"/>
         <v>1903</v>
@@ -61599,6 +62208,9 @@
       <c r="E1905" t="s">
         <v>4041</v>
       </c>
+      <c r="F1905">
+        <v>77</v>
+      </c>
       <c r="G1905">
         <f t="shared" si="29"/>
         <v>1904</v>
@@ -61620,6 +62232,9 @@
       <c r="E1906" t="s">
         <v>68</v>
       </c>
+      <c r="F1906">
+        <v>69</v>
+      </c>
       <c r="G1906">
         <f t="shared" si="29"/>
         <v>1905</v>
@@ -61641,6 +62256,9 @@
       <c r="E1907" t="s">
         <v>190</v>
       </c>
+      <c r="F1907">
+        <v>79</v>
+      </c>
       <c r="G1907">
         <f t="shared" si="29"/>
         <v>1906</v>
@@ -61662,6 +62280,9 @@
       <c r="E1908" t="s">
         <v>2410</v>
       </c>
+      <c r="F1908">
+        <v>77</v>
+      </c>
       <c r="G1908">
         <f t="shared" si="29"/>
         <v>1907</v>
@@ -61683,6 +62304,9 @@
       <c r="E1909" t="s">
         <v>18</v>
       </c>
+      <c r="F1909">
+        <v>73</v>
+      </c>
       <c r="G1909">
         <f t="shared" si="29"/>
         <v>1908</v>
@@ -61704,6 +62328,9 @@
       <c r="E1910" t="s">
         <v>9</v>
       </c>
+      <c r="F1910">
+        <v>84</v>
+      </c>
       <c r="G1910">
         <f t="shared" si="29"/>
         <v>1909</v>
@@ -61725,6 +62352,9 @@
       <c r="E1911" t="s">
         <v>68</v>
       </c>
+      <c r="F1911">
+        <v>83</v>
+      </c>
       <c r="G1911">
         <f t="shared" si="29"/>
         <v>1910</v>
@@ -61746,6 +62376,9 @@
       <c r="E1912" t="s">
         <v>158</v>
       </c>
+      <c r="F1912">
+        <v>74</v>
+      </c>
       <c r="G1912">
         <f t="shared" si="29"/>
         <v>1911</v>
@@ -61767,6 +62400,9 @@
       <c r="E1913" t="s">
         <v>3236</v>
       </c>
+      <c r="F1913">
+        <v>69</v>
+      </c>
       <c r="G1913">
         <f t="shared" si="29"/>
         <v>1912</v>
@@ -61788,6 +62424,9 @@
       <c r="E1914" t="s">
         <v>4239</v>
       </c>
+      <c r="F1914">
+        <v>61</v>
+      </c>
       <c r="G1914">
         <f t="shared" si="29"/>
         <v>1913</v>
@@ -61809,6 +62448,9 @@
       <c r="E1915" t="s">
         <v>280</v>
       </c>
+      <c r="F1915">
+        <v>68</v>
+      </c>
       <c r="G1915">
         <f t="shared" si="29"/>
         <v>1914</v>
@@ -61830,6 +62472,9 @@
       <c r="E1916" t="s">
         <v>4244</v>
       </c>
+      <c r="F1916">
+        <v>94</v>
+      </c>
       <c r="G1916">
         <f t="shared" si="29"/>
         <v>1915</v>
@@ -61851,6 +62496,9 @@
       <c r="E1917" t="s">
         <v>24</v>
       </c>
+      <c r="F1917">
+        <v>82</v>
+      </c>
       <c r="G1917">
         <f t="shared" si="29"/>
         <v>1916</v>
@@ -61872,6 +62520,9 @@
       <c r="E1918" t="s">
         <v>794</v>
       </c>
+      <c r="F1918">
+        <v>83</v>
+      </c>
       <c r="G1918">
         <f t="shared" si="29"/>
         <v>1917</v>
@@ -61893,6 +62544,9 @@
       <c r="E1919" t="s">
         <v>9</v>
       </c>
+      <c r="F1919">
+        <v>73</v>
+      </c>
       <c r="G1919">
         <f t="shared" si="29"/>
         <v>1918</v>
@@ -61914,6 +62568,9 @@
       <c r="E1920" t="s">
         <v>4253</v>
       </c>
+      <c r="F1920">
+        <v>86</v>
+      </c>
       <c r="G1920">
         <f t="shared" si="29"/>
         <v>1919</v>
@@ -61935,6 +62592,9 @@
       <c r="E1921" t="s">
         <v>1293</v>
       </c>
+      <c r="F1921">
+        <v>75</v>
+      </c>
       <c r="G1921">
         <f t="shared" si="29"/>
         <v>1920</v>
@@ -61956,6 +62616,9 @@
       <c r="E1922" t="s">
         <v>4258</v>
       </c>
+      <c r="F1922">
+        <v>82</v>
+      </c>
       <c r="G1922">
         <f t="shared" si="29"/>
         <v>1921</v>
@@ -61977,6 +62640,9 @@
       <c r="E1923" t="s">
         <v>9</v>
       </c>
+      <c r="F1923">
+        <v>79</v>
+      </c>
       <c r="G1923">
         <f t="shared" si="29"/>
         <v>1922</v>
@@ -61998,6 +62664,9 @@
       <c r="E1924" t="s">
         <v>9</v>
       </c>
+      <c r="F1924">
+        <v>78</v>
+      </c>
       <c r="G1924">
         <f t="shared" si="29"/>
         <v>1923</v>
@@ -62019,6 +62688,9 @@
       <c r="E1925" t="s">
         <v>9</v>
       </c>
+      <c r="F1925">
+        <v>95</v>
+      </c>
       <c r="G1925">
         <f t="shared" ref="G1925:G1988" si="30">SUM(G1924 +1)</f>
         <v>1924</v>
@@ -62040,6 +62712,9 @@
       <c r="E1926" t="s">
         <v>198</v>
       </c>
+      <c r="F1926">
+        <v>75</v>
+      </c>
       <c r="G1926">
         <f t="shared" si="30"/>
         <v>1925</v>
@@ -62061,6 +62736,9 @@
       <c r="E1927" t="s">
         <v>3586</v>
       </c>
+      <c r="F1927">
+        <v>75</v>
+      </c>
       <c r="G1927">
         <f t="shared" si="30"/>
         <v>1926</v>
@@ -62082,6 +62760,9 @@
       <c r="E1928" t="s">
         <v>52</v>
       </c>
+      <c r="F1928">
+        <v>64</v>
+      </c>
       <c r="G1928">
         <f t="shared" si="30"/>
         <v>1927</v>
@@ -62103,6 +62784,9 @@
       <c r="E1929" t="s">
         <v>3493</v>
       </c>
+      <c r="F1929">
+        <v>91</v>
+      </c>
       <c r="G1929">
         <f t="shared" si="30"/>
         <v>1928</v>
@@ -62124,6 +62808,9 @@
       <c r="E1930" t="s">
         <v>1485</v>
       </c>
+      <c r="F1930">
+        <v>78</v>
+      </c>
       <c r="G1930">
         <f t="shared" si="30"/>
         <v>1929</v>
@@ -62145,6 +62832,9 @@
       <c r="E1931" t="s">
         <v>190</v>
       </c>
+      <c r="F1931">
+        <v>70</v>
+      </c>
       <c r="G1931">
         <f t="shared" si="30"/>
         <v>1930</v>
@@ -62166,6 +62856,9 @@
       <c r="E1932" t="s">
         <v>541</v>
       </c>
+      <c r="F1932">
+        <v>75</v>
+      </c>
       <c r="G1932">
         <f t="shared" si="30"/>
         <v>1931</v>
@@ -62187,6 +62880,9 @@
       <c r="E1933" t="s">
         <v>603</v>
       </c>
+      <c r="F1933">
+        <v>76</v>
+      </c>
       <c r="G1933">
         <f t="shared" si="30"/>
         <v>1932</v>
@@ -62208,6 +62904,9 @@
       <c r="E1934" t="s">
         <v>221</v>
       </c>
+      <c r="F1934">
+        <v>68</v>
+      </c>
       <c r="G1934">
         <f t="shared" si="30"/>
         <v>1933</v>
@@ -62229,6 +62928,9 @@
       <c r="E1935" t="s">
         <v>4285</v>
       </c>
+      <c r="F1935">
+        <v>82</v>
+      </c>
       <c r="G1935">
         <f t="shared" si="30"/>
         <v>1934</v>
@@ -62250,6 +62952,9 @@
       <c r="E1936" t="s">
         <v>4288</v>
       </c>
+      <c r="F1936">
+        <v>68</v>
+      </c>
       <c r="G1936">
         <f t="shared" si="30"/>
         <v>1935</v>
@@ -62271,6 +62976,9 @@
       <c r="E1937" t="s">
         <v>1860</v>
       </c>
+      <c r="F1937">
+        <v>80</v>
+      </c>
       <c r="G1937">
         <f t="shared" si="30"/>
         <v>1936</v>
@@ -62292,6 +63000,9 @@
       <c r="E1938" t="s">
         <v>4293</v>
       </c>
+      <c r="F1938">
+        <v>80</v>
+      </c>
       <c r="G1938">
         <f t="shared" si="30"/>
         <v>1937</v>
@@ -62313,6 +63024,9 @@
       <c r="E1939" t="s">
         <v>256</v>
       </c>
+      <c r="F1939">
+        <v>83</v>
+      </c>
       <c r="G1939">
         <f t="shared" si="30"/>
         <v>1938</v>
@@ -62334,6 +63048,9 @@
       <c r="E1940" t="s">
         <v>280</v>
       </c>
+      <c r="F1940">
+        <v>72</v>
+      </c>
       <c r="G1940">
         <f t="shared" si="30"/>
         <v>1939</v>
@@ -62355,6 +63072,9 @@
       <c r="E1941" t="s">
         <v>9</v>
       </c>
+      <c r="F1941">
+        <v>84</v>
+      </c>
       <c r="G1941">
         <f t="shared" si="30"/>
         <v>1940</v>
@@ -62376,6 +63096,9 @@
       <c r="E1942" t="s">
         <v>9</v>
       </c>
+      <c r="F1942">
+        <v>64</v>
+      </c>
       <c r="G1942">
         <f t="shared" si="30"/>
         <v>1941</v>
@@ -62397,6 +63120,9 @@
       <c r="E1943" t="s">
         <v>9</v>
       </c>
+      <c r="F1943">
+        <v>77</v>
+      </c>
       <c r="G1943">
         <f t="shared" si="30"/>
         <v>1942</v>
@@ -62418,6 +63144,9 @@
       <c r="E1944" t="s">
         <v>4041</v>
       </c>
+      <c r="F1944">
+        <v>77</v>
+      </c>
       <c r="G1944">
         <f t="shared" si="30"/>
         <v>1943</v>
@@ -62439,6 +63168,9 @@
       <c r="E1945" t="s">
         <v>4308</v>
       </c>
+      <c r="F1945">
+        <v>65</v>
+      </c>
       <c r="G1945">
         <f t="shared" si="30"/>
         <v>1944</v>
@@ -62460,6 +63192,9 @@
       <c r="E1946" t="s">
         <v>9</v>
       </c>
+      <c r="F1946">
+        <v>85</v>
+      </c>
       <c r="G1946">
         <f t="shared" si="30"/>
         <v>1945</v>
@@ -62481,6 +63216,9 @@
       <c r="E1947" t="s">
         <v>158</v>
       </c>
+      <c r="F1947">
+        <v>61</v>
+      </c>
       <c r="G1947">
         <f t="shared" si="30"/>
         <v>1946</v>
@@ -62502,6 +63240,9 @@
       <c r="E1948" t="s">
         <v>635</v>
       </c>
+      <c r="F1948">
+        <v>78</v>
+      </c>
       <c r="G1948">
         <f t="shared" si="30"/>
         <v>1947</v>
@@ -62523,6 +63264,9 @@
       <c r="E1949" t="s">
         <v>9</v>
       </c>
+      <c r="F1949">
+        <v>78</v>
+      </c>
       <c r="G1949">
         <f t="shared" si="30"/>
         <v>1948</v>
@@ -62544,6 +63288,9 @@
       <c r="E1950" t="s">
         <v>9</v>
       </c>
+      <c r="F1950">
+        <v>85</v>
+      </c>
       <c r="G1950">
         <f t="shared" si="30"/>
         <v>1949</v>
@@ -62565,6 +63312,9 @@
       <c r="E1951" t="s">
         <v>4321</v>
       </c>
+      <c r="F1951">
+        <v>63</v>
+      </c>
       <c r="G1951">
         <f t="shared" si="30"/>
         <v>1950</v>
@@ -62586,6 +63336,9 @@
       <c r="E1952" t="s">
         <v>3890</v>
       </c>
+      <c r="F1952">
+        <v>85</v>
+      </c>
       <c r="G1952">
         <f t="shared" si="30"/>
         <v>1951</v>
@@ -62607,6 +63360,9 @@
       <c r="E1953" t="s">
         <v>4326</v>
       </c>
+      <c r="F1953">
+        <v>68</v>
+      </c>
       <c r="G1953">
         <f t="shared" si="30"/>
         <v>1952</v>
@@ -62628,6 +63384,9 @@
       <c r="E1954" t="s">
         <v>9</v>
       </c>
+      <c r="F1954">
+        <v>73</v>
+      </c>
       <c r="G1954">
         <f t="shared" si="30"/>
         <v>1953</v>
@@ -62649,6 +63408,9 @@
       <c r="E1955" t="s">
         <v>68</v>
       </c>
+      <c r="F1955">
+        <v>77</v>
+      </c>
       <c r="G1955">
         <f t="shared" si="30"/>
         <v>1954</v>
@@ -62670,6 +63432,9 @@
       <c r="E1956" t="s">
         <v>4333</v>
       </c>
+      <c r="F1956">
+        <v>83</v>
+      </c>
       <c r="G1956">
         <f t="shared" si="30"/>
         <v>1955</v>
@@ -62691,6 +63456,9 @@
       <c r="E1957" t="s">
         <v>4336</v>
       </c>
+      <c r="F1957">
+        <v>70</v>
+      </c>
       <c r="G1957">
         <f t="shared" si="30"/>
         <v>1956</v>
@@ -62712,6 +63480,9 @@
       <c r="E1958" t="s">
         <v>1000</v>
       </c>
+      <c r="F1958">
+        <v>73</v>
+      </c>
       <c r="G1958">
         <f t="shared" si="30"/>
         <v>1957</v>
@@ -62733,6 +63504,9 @@
       <c r="E1959" t="s">
         <v>783</v>
       </c>
+      <c r="F1959">
+        <v>74</v>
+      </c>
       <c r="G1959">
         <f t="shared" si="30"/>
         <v>1958</v>
@@ -62754,6 +63528,9 @@
       <c r="E1960" t="s">
         <v>9</v>
       </c>
+      <c r="F1960">
+        <v>70</v>
+      </c>
       <c r="G1960">
         <f t="shared" si="30"/>
         <v>1959</v>
@@ -62775,6 +63552,9 @@
       <c r="E1961" t="s">
         <v>68</v>
       </c>
+      <c r="F1961">
+        <v>73</v>
+      </c>
       <c r="G1961">
         <f t="shared" si="30"/>
         <v>1960</v>
@@ -62796,6 +63576,9 @@
       <c r="E1962" t="s">
         <v>4347</v>
       </c>
+      <c r="F1962">
+        <v>70</v>
+      </c>
       <c r="G1962">
         <f t="shared" si="30"/>
         <v>1961</v>
@@ -62817,6 +63600,9 @@
       <c r="E1963" t="s">
         <v>9</v>
       </c>
+      <c r="F1963">
+        <v>72</v>
+      </c>
       <c r="G1963">
         <f t="shared" si="30"/>
         <v>1962</v>
@@ -62838,6 +63624,9 @@
       <c r="E1964" t="s">
         <v>24</v>
       </c>
+      <c r="F1964">
+        <v>70</v>
+      </c>
       <c r="G1964">
         <f t="shared" si="30"/>
         <v>1963</v>
@@ -62859,6 +63648,9 @@
       <c r="E1965" t="s">
         <v>9</v>
       </c>
+      <c r="F1965">
+        <v>73</v>
+      </c>
       <c r="G1965">
         <f t="shared" si="30"/>
         <v>1964</v>
@@ -62880,6 +63672,9 @@
       <c r="E1966" t="s">
         <v>24</v>
       </c>
+      <c r="F1966">
+        <v>77</v>
+      </c>
       <c r="G1966">
         <f t="shared" si="30"/>
         <v>1965</v>
@@ -62901,6 +63696,9 @@
       <c r="E1967" t="s">
         <v>24</v>
       </c>
+      <c r="F1967">
+        <v>74</v>
+      </c>
       <c r="G1967">
         <f t="shared" si="30"/>
         <v>1966</v>
@@ -62922,6 +63720,9 @@
       <c r="E1968" t="s">
         <v>52</v>
       </c>
+      <c r="F1968">
+        <v>70</v>
+      </c>
       <c r="G1968">
         <f t="shared" si="30"/>
         <v>1967</v>
@@ -62943,6 +63744,9 @@
       <c r="E1969" t="s">
         <v>52</v>
       </c>
+      <c r="F1969">
+        <v>74</v>
+      </c>
       <c r="G1969">
         <f t="shared" si="30"/>
         <v>1968</v>
@@ -62964,6 +63768,9 @@
       <c r="E1970" t="s">
         <v>24</v>
       </c>
+      <c r="F1970">
+        <v>77</v>
+      </c>
       <c r="G1970">
         <f t="shared" si="30"/>
         <v>1969</v>
@@ -62985,6 +63792,9 @@
       <c r="E1971" t="s">
         <v>9</v>
       </c>
+      <c r="F1971">
+        <v>78</v>
+      </c>
       <c r="G1971">
         <f t="shared" si="30"/>
         <v>1970</v>
@@ -63006,6 +63816,9 @@
       <c r="E1972" t="s">
         <v>9</v>
       </c>
+      <c r="F1972">
+        <v>74</v>
+      </c>
       <c r="G1972">
         <f t="shared" si="30"/>
         <v>1971</v>
@@ -63027,6 +63840,9 @@
       <c r="E1973" t="s">
         <v>645</v>
       </c>
+      <c r="F1973">
+        <v>84</v>
+      </c>
       <c r="G1973">
         <f t="shared" si="30"/>
         <v>1972</v>
@@ -63048,6 +63864,9 @@
       <c r="E1974" t="s">
         <v>9</v>
       </c>
+      <c r="F1974">
+        <v>82</v>
+      </c>
       <c r="G1974">
         <f t="shared" si="30"/>
         <v>1973</v>
@@ -63069,6 +63888,9 @@
       <c r="E1975" t="s">
         <v>35</v>
       </c>
+      <c r="F1975">
+        <v>78</v>
+      </c>
       <c r="G1975">
         <f t="shared" si="30"/>
         <v>1974</v>
@@ -63090,6 +63912,9 @@
       <c r="E1976" t="s">
         <v>60</v>
       </c>
+      <c r="F1976">
+        <v>78</v>
+      </c>
       <c r="G1976">
         <f t="shared" si="30"/>
         <v>1975</v>
@@ -63111,6 +63936,9 @@
       <c r="E1977" t="s">
         <v>380</v>
       </c>
+      <c r="F1977">
+        <v>77</v>
+      </c>
       <c r="G1977">
         <f t="shared" si="30"/>
         <v>1976</v>
@@ -63132,6 +63960,9 @@
       <c r="E1978" t="s">
         <v>9</v>
       </c>
+      <c r="F1978">
+        <v>66</v>
+      </c>
       <c r="G1978">
         <f t="shared" si="30"/>
         <v>1977</v>
@@ -63153,6 +63984,9 @@
       <c r="E1979" t="s">
         <v>380</v>
       </c>
+      <c r="F1979">
+        <v>68</v>
+      </c>
       <c r="G1979">
         <f t="shared" si="30"/>
         <v>1978</v>
@@ -63174,6 +64008,9 @@
       <c r="E1980" t="s">
         <v>52</v>
       </c>
+      <c r="F1980">
+        <v>73</v>
+      </c>
       <c r="G1980">
         <f t="shared" si="30"/>
         <v>1979</v>
@@ -63195,6 +64032,9 @@
       <c r="E1981" t="s">
         <v>4386</v>
       </c>
+      <c r="F1981">
+        <v>82</v>
+      </c>
       <c r="G1981">
         <f t="shared" si="30"/>
         <v>1980</v>
@@ -63216,6 +64056,9 @@
       <c r="E1982" t="s">
         <v>9</v>
       </c>
+      <c r="F1982">
+        <v>79</v>
+      </c>
       <c r="G1982">
         <f t="shared" si="30"/>
         <v>1981</v>
@@ -63237,6 +64080,9 @@
       <c r="E1983" t="s">
         <v>9</v>
       </c>
+      <c r="F1983">
+        <v>74</v>
+      </c>
       <c r="G1983">
         <f t="shared" si="30"/>
         <v>1982</v>
@@ -63258,6 +64104,9 @@
       <c r="E1984" t="s">
         <v>116</v>
       </c>
+      <c r="F1984">
+        <v>102</v>
+      </c>
       <c r="G1984">
         <f t="shared" si="30"/>
         <v>1983</v>
@@ -63279,6 +64128,9 @@
       <c r="E1985" t="s">
         <v>1771</v>
       </c>
+      <c r="F1985">
+        <v>78</v>
+      </c>
       <c r="G1985">
         <f t="shared" si="30"/>
         <v>1984</v>
@@ -63300,6 +64152,9 @@
       <c r="E1986" t="s">
         <v>99</v>
       </c>
+      <c r="F1986">
+        <v>81</v>
+      </c>
       <c r="G1986">
         <f t="shared" si="30"/>
         <v>1985</v>
@@ -63321,6 +64176,9 @@
       <c r="E1987" t="s">
         <v>1115</v>
       </c>
+      <c r="F1987">
+        <v>72</v>
+      </c>
       <c r="G1987">
         <f t="shared" si="30"/>
         <v>1986</v>
@@ -63342,6 +64200,9 @@
       <c r="E1988" t="s">
         <v>68</v>
       </c>
+      <c r="F1988">
+        <v>70</v>
+      </c>
       <c r="G1988">
         <f t="shared" si="30"/>
         <v>1987</v>
@@ -63363,6 +64224,9 @@
       <c r="E1989" t="s">
         <v>4403</v>
       </c>
+      <c r="F1989">
+        <v>99</v>
+      </c>
       <c r="G1989">
         <f t="shared" ref="G1989:G2052" si="31">SUM(G1988 +1)</f>
         <v>1988</v>
@@ -63384,6 +64248,9 @@
       <c r="E1990" t="s">
         <v>2188</v>
       </c>
+      <c r="F1990">
+        <v>76</v>
+      </c>
       <c r="G1990">
         <f t="shared" si="31"/>
         <v>1989</v>
@@ -63405,6 +64272,9 @@
       <c r="E1991" t="s">
         <v>561</v>
       </c>
+      <c r="F1991">
+        <v>73</v>
+      </c>
       <c r="G1991">
         <f t="shared" si="31"/>
         <v>1990</v>
@@ -63426,6 +64296,9 @@
       <c r="E1992" t="s">
         <v>24</v>
       </c>
+      <c r="F1992">
+        <v>68</v>
+      </c>
       <c r="G1992">
         <f t="shared" si="31"/>
         <v>1991</v>
@@ -63447,6 +64320,9 @@
       <c r="E1993" t="s">
         <v>9</v>
       </c>
+      <c r="F1993">
+        <v>89</v>
+      </c>
       <c r="G1993">
         <f t="shared" si="31"/>
         <v>1992</v>
@@ -63468,6 +64344,9 @@
       <c r="E1994" t="s">
         <v>2188</v>
       </c>
+      <c r="F1994">
+        <v>67</v>
+      </c>
       <c r="G1994">
         <f t="shared" si="31"/>
         <v>1993</v>
@@ -63489,6 +64368,9 @@
       <c r="E1995" t="s">
         <v>1053</v>
       </c>
+      <c r="F1995">
+        <v>70</v>
+      </c>
       <c r="G1995">
         <f t="shared" si="31"/>
         <v>1994</v>
@@ -63510,6 +64392,9 @@
       <c r="E1996" t="s">
         <v>9</v>
       </c>
+      <c r="F1996">
+        <v>74</v>
+      </c>
       <c r="G1996">
         <f t="shared" si="31"/>
         <v>1995</v>
@@ -63531,6 +64416,9 @@
       <c r="E1997" t="s">
         <v>9</v>
       </c>
+      <c r="F1997">
+        <v>77</v>
+      </c>
       <c r="G1997">
         <f t="shared" si="31"/>
         <v>1996</v>
@@ -63552,6 +64440,9 @@
       <c r="E1998" t="s">
         <v>9</v>
       </c>
+      <c r="F1998">
+        <v>74</v>
+      </c>
       <c r="G1998">
         <f t="shared" si="31"/>
         <v>1997</v>
@@ -63573,6 +64464,9 @@
       <c r="E1999" t="s">
         <v>190</v>
       </c>
+      <c r="F1999">
+        <v>74</v>
+      </c>
       <c r="G1999">
         <f t="shared" si="31"/>
         <v>1998</v>
@@ -63594,6 +64488,9 @@
       <c r="E2000" t="s">
         <v>412</v>
       </c>
+      <c r="F2000">
+        <v>83</v>
+      </c>
       <c r="G2000">
         <f t="shared" si="31"/>
         <v>1999</v>
@@ -63615,6 +64512,9 @@
       <c r="E2001" t="s">
         <v>24</v>
       </c>
+      <c r="F2001">
+        <v>70</v>
+      </c>
       <c r="G2001">
         <f t="shared" si="31"/>
         <v>2000</v>
@@ -63636,6 +64536,9 @@
       <c r="E2002" t="s">
         <v>2075</v>
       </c>
+      <c r="F2002">
+        <v>82</v>
+      </c>
       <c r="G2002">
         <f t="shared" si="31"/>
         <v>2001</v>
@@ -63657,6 +64560,9 @@
       <c r="E2003" t="s">
         <v>4432</v>
       </c>
+      <c r="F2003">
+        <v>69</v>
+      </c>
       <c r="G2003">
         <f t="shared" si="31"/>
         <v>2002</v>
@@ -63678,6 +64584,9 @@
       <c r="E2004" t="s">
         <v>283</v>
       </c>
+      <c r="F2004">
+        <v>94</v>
+      </c>
       <c r="G2004">
         <f t="shared" si="31"/>
         <v>2003</v>
@@ -63699,6 +64608,9 @@
       <c r="E2005" t="s">
         <v>9</v>
       </c>
+      <c r="F2005">
+        <v>79</v>
+      </c>
       <c r="G2005">
         <f t="shared" si="31"/>
         <v>2004</v>
@@ -63720,6 +64632,9 @@
       <c r="E2006" t="s">
         <v>4439</v>
       </c>
+      <c r="F2006">
+        <v>72</v>
+      </c>
       <c r="G2006">
         <f t="shared" si="31"/>
         <v>2005</v>
@@ -63741,6 +64656,9 @@
       <c r="E2007" t="s">
         <v>655</v>
       </c>
+      <c r="F2007">
+        <v>74</v>
+      </c>
       <c r="G2007">
         <f t="shared" si="31"/>
         <v>2006</v>
@@ -63762,6 +64680,9 @@
       <c r="E2008" t="s">
         <v>4444</v>
       </c>
+      <c r="F2008">
+        <v>88</v>
+      </c>
       <c r="G2008">
         <f t="shared" si="31"/>
         <v>2007</v>
@@ -63783,6 +64704,9 @@
       <c r="E2009" t="s">
         <v>235</v>
       </c>
+      <c r="F2009">
+        <v>73</v>
+      </c>
       <c r="G2009">
         <f t="shared" si="31"/>
         <v>2008</v>
@@ -63804,6 +64728,9 @@
       <c r="E2010" t="s">
         <v>9</v>
       </c>
+      <c r="F2010">
+        <v>79</v>
+      </c>
       <c r="G2010">
         <f t="shared" si="31"/>
         <v>2009</v>
@@ -63825,6 +64752,9 @@
       <c r="E2011" t="s">
         <v>4451</v>
       </c>
+      <c r="F2011">
+        <v>83</v>
+      </c>
       <c r="G2011">
         <f t="shared" si="31"/>
         <v>2010</v>
@@ -63846,6 +64776,9 @@
       <c r="E2012" t="s">
         <v>24</v>
       </c>
+      <c r="F2012">
+        <v>74</v>
+      </c>
       <c r="G2012">
         <f t="shared" si="31"/>
         <v>2011</v>
@@ -63867,6 +64800,9 @@
       <c r="E2013" t="s">
         <v>3558</v>
       </c>
+      <c r="F2013">
+        <v>64</v>
+      </c>
       <c r="G2013">
         <f t="shared" si="31"/>
         <v>2012</v>
@@ -63888,6 +64824,9 @@
       <c r="E2014" t="s">
         <v>218</v>
       </c>
+      <c r="F2014">
+        <v>78</v>
+      </c>
       <c r="G2014">
         <f t="shared" si="31"/>
         <v>2013</v>
@@ -63909,6 +64848,9 @@
       <c r="E2015" t="s">
         <v>198</v>
       </c>
+      <c r="F2015">
+        <v>73</v>
+      </c>
       <c r="G2015">
         <f t="shared" si="31"/>
         <v>2014</v>
@@ -63930,6 +64872,9 @@
       <c r="E2016" t="s">
         <v>193</v>
       </c>
+      <c r="F2016">
+        <v>95</v>
+      </c>
       <c r="G2016">
         <f t="shared" si="31"/>
         <v>2015</v>
@@ -63951,6 +64896,9 @@
       <c r="E2017" t="s">
         <v>9</v>
       </c>
+      <c r="F2017">
+        <v>79</v>
+      </c>
       <c r="G2017">
         <f t="shared" si="31"/>
         <v>2016</v>
@@ -63972,6 +64920,9 @@
       <c r="E2018" t="s">
         <v>9</v>
       </c>
+      <c r="F2018">
+        <v>97</v>
+      </c>
       <c r="G2018">
         <f t="shared" si="31"/>
         <v>2017</v>
@@ -63993,6 +64944,9 @@
       <c r="E2019" t="s">
         <v>9</v>
       </c>
+      <c r="F2019">
+        <v>70</v>
+      </c>
       <c r="G2019">
         <f t="shared" si="31"/>
         <v>2018</v>
@@ -64014,6 +64968,9 @@
       <c r="E2020" t="s">
         <v>46</v>
       </c>
+      <c r="F2020">
+        <v>86</v>
+      </c>
       <c r="G2020">
         <f t="shared" si="31"/>
         <v>2019</v>
@@ -64035,6 +64992,9 @@
       <c r="E2021" t="s">
         <v>323</v>
       </c>
+      <c r="F2021">
+        <v>68</v>
+      </c>
       <c r="G2021">
         <f t="shared" si="31"/>
         <v>2020</v>
@@ -64056,6 +65016,9 @@
       <c r="E2022" t="s">
         <v>635</v>
       </c>
+      <c r="F2022">
+        <v>70</v>
+      </c>
       <c r="G2022">
         <f t="shared" si="31"/>
         <v>2021</v>
@@ -64077,6 +65040,9 @@
       <c r="E2023" t="s">
         <v>221</v>
       </c>
+      <c r="F2023">
+        <v>73</v>
+      </c>
       <c r="G2023">
         <f t="shared" si="31"/>
         <v>2022</v>
@@ -64098,6 +65064,9 @@
       <c r="E2024" t="s">
         <v>4478</v>
       </c>
+      <c r="F2024">
+        <v>64</v>
+      </c>
       <c r="G2024">
         <f t="shared" si="31"/>
         <v>2023</v>
@@ -64119,6 +65088,9 @@
       <c r="E2025" t="s">
         <v>1903</v>
       </c>
+      <c r="F2025">
+        <v>78</v>
+      </c>
       <c r="G2025">
         <f t="shared" si="31"/>
         <v>2024</v>
@@ -64140,6 +65112,9 @@
       <c r="E2026" t="s">
         <v>110</v>
       </c>
+      <c r="F2026">
+        <v>97</v>
+      </c>
       <c r="G2026">
         <f t="shared" si="31"/>
         <v>2025</v>
@@ -64161,6 +65136,9 @@
       <c r="E2027" t="s">
         <v>2824</v>
       </c>
+      <c r="F2027">
+        <v>79</v>
+      </c>
       <c r="G2027">
         <f t="shared" si="31"/>
         <v>2026</v>
@@ -64182,6 +65160,9 @@
       <c r="E2028" t="s">
         <v>1128</v>
       </c>
+      <c r="F2028">
+        <v>86</v>
+      </c>
       <c r="G2028">
         <f t="shared" si="31"/>
         <v>2027</v>
@@ -64203,6 +65184,9 @@
       <c r="E2029" t="s">
         <v>9</v>
       </c>
+      <c r="F2029">
+        <v>79</v>
+      </c>
       <c r="G2029">
         <f t="shared" si="31"/>
         <v>2028</v>
@@ -64224,6 +65208,9 @@
       <c r="E2030" t="s">
         <v>518</v>
       </c>
+      <c r="F2030">
+        <v>79</v>
+      </c>
       <c r="G2030">
         <f t="shared" si="31"/>
         <v>2029</v>
@@ -64245,6 +65232,9 @@
       <c r="E2031" t="s">
         <v>1598</v>
       </c>
+      <c r="F2031">
+        <v>73</v>
+      </c>
       <c r="G2031">
         <f t="shared" si="31"/>
         <v>2030</v>
@@ -64266,6 +65256,9 @@
       <c r="E2032" t="s">
         <v>9</v>
       </c>
+      <c r="F2032">
+        <v>68</v>
+      </c>
       <c r="G2032">
         <f t="shared" si="31"/>
         <v>2031</v>
@@ -64287,6 +65280,9 @@
       <c r="E2033" t="s">
         <v>158</v>
       </c>
+      <c r="F2033">
+        <v>68</v>
+      </c>
       <c r="G2033">
         <f t="shared" si="31"/>
         <v>2032</v>
@@ -64308,6 +65304,9 @@
       <c r="E2034" t="s">
         <v>2072</v>
       </c>
+      <c r="F2034">
+        <v>82</v>
+      </c>
       <c r="G2034">
         <f t="shared" si="31"/>
         <v>2033</v>
@@ -64329,6 +65328,9 @@
       <c r="E2035" t="s">
         <v>119</v>
       </c>
+      <c r="F2035">
+        <v>70</v>
+      </c>
       <c r="G2035">
         <f t="shared" si="31"/>
         <v>2034</v>
@@ -64350,6 +65352,9 @@
       <c r="E2036" t="s">
         <v>9</v>
       </c>
+      <c r="F2036">
+        <v>86</v>
+      </c>
       <c r="G2036">
         <f t="shared" si="31"/>
         <v>2035</v>
@@ -64371,6 +65376,9 @@
       <c r="E2037" t="s">
         <v>9</v>
       </c>
+      <c r="F2037">
+        <v>83</v>
+      </c>
       <c r="G2037">
         <f t="shared" si="31"/>
         <v>2036</v>
@@ -64392,6 +65400,9 @@
       <c r="E2038" t="s">
         <v>68</v>
       </c>
+      <c r="F2038">
+        <v>73</v>
+      </c>
       <c r="G2038">
         <f t="shared" si="31"/>
         <v>2037</v>
@@ -64413,6 +65424,9 @@
       <c r="E2039" t="s">
         <v>9</v>
       </c>
+      <c r="F2039">
+        <v>74</v>
+      </c>
       <c r="G2039">
         <f t="shared" si="31"/>
         <v>2038</v>
@@ -64434,6 +65448,9 @@
       <c r="E2040" t="s">
         <v>256</v>
       </c>
+      <c r="F2040">
+        <v>73</v>
+      </c>
       <c r="G2040">
         <f t="shared" si="31"/>
         <v>2039</v>
@@ -64455,6 +65472,9 @@
       <c r="E2041" t="s">
         <v>52</v>
       </c>
+      <c r="F2041">
+        <v>69</v>
+      </c>
       <c r="G2041">
         <f t="shared" si="31"/>
         <v>2040</v>
@@ -64476,6 +65496,9 @@
       <c r="E2042" t="s">
         <v>1206</v>
       </c>
+      <c r="F2042">
+        <v>68</v>
+      </c>
       <c r="G2042">
         <f t="shared" si="31"/>
         <v>2041</v>
@@ -64497,6 +65520,9 @@
       <c r="E2043" t="s">
         <v>4516</v>
       </c>
+      <c r="F2043">
+        <v>72</v>
+      </c>
       <c r="G2043">
         <f t="shared" si="31"/>
         <v>2042</v>
@@ -64518,6 +65544,9 @@
       <c r="E2044" t="s">
         <v>4519</v>
       </c>
+      <c r="F2044">
+        <v>70</v>
+      </c>
       <c r="G2044">
         <f t="shared" si="31"/>
         <v>2043</v>
@@ -64539,6 +65568,9 @@
       <c r="E2045" t="s">
         <v>110</v>
       </c>
+      <c r="F2045">
+        <v>93</v>
+      </c>
       <c r="G2045">
         <f t="shared" si="31"/>
         <v>2044</v>
@@ -64560,6 +65592,9 @@
       <c r="E2046" t="s">
         <v>24</v>
       </c>
+      <c r="F2046">
+        <v>83</v>
+      </c>
       <c r="G2046">
         <f t="shared" si="31"/>
         <v>2045</v>
@@ -64581,6 +65616,9 @@
       <c r="E2047" t="s">
         <v>477</v>
       </c>
+      <c r="F2047">
+        <v>69</v>
+      </c>
       <c r="G2047">
         <f t="shared" si="31"/>
         <v>2046</v>
@@ -64602,6 +65640,9 @@
       <c r="E2048" t="s">
         <v>9</v>
       </c>
+      <c r="F2048">
+        <v>73</v>
+      </c>
       <c r="G2048">
         <f t="shared" si="31"/>
         <v>2047</v>
@@ -64623,6 +65664,9 @@
       <c r="E2049" t="s">
         <v>635</v>
       </c>
+      <c r="F2049">
+        <v>68</v>
+      </c>
       <c r="G2049">
         <f t="shared" si="31"/>
         <v>2048</v>
@@ -64644,6 +65688,9 @@
       <c r="E2050" t="s">
         <v>24</v>
       </c>
+      <c r="F2050">
+        <v>71</v>
+      </c>
       <c r="G2050">
         <f t="shared" si="31"/>
         <v>2049</v>
@@ -64665,6 +65712,9 @@
       <c r="E2051" t="s">
         <v>4534</v>
       </c>
+      <c r="F2051">
+        <v>86</v>
+      </c>
       <c r="G2051">
         <f t="shared" si="31"/>
         <v>2050</v>
@@ -64686,6 +65736,9 @@
       <c r="E2052" t="s">
         <v>9</v>
       </c>
+      <c r="F2052">
+        <v>70</v>
+      </c>
       <c r="G2052">
         <f t="shared" si="31"/>
         <v>2051</v>
@@ -64707,6 +65760,9 @@
       <c r="E2053" t="s">
         <v>9</v>
       </c>
+      <c r="F2053">
+        <v>66</v>
+      </c>
       <c r="G2053">
         <f t="shared" ref="G2053:G2116" si="32">SUM(G2052 +1)</f>
         <v>2052</v>
@@ -64728,6 +65784,9 @@
       <c r="E2054" t="s">
         <v>1241</v>
       </c>
+      <c r="F2054">
+        <v>92</v>
+      </c>
       <c r="G2054">
         <f t="shared" si="32"/>
         <v>2053</v>
@@ -64749,6 +65808,9 @@
       <c r="E2055" t="s">
         <v>280</v>
       </c>
+      <c r="F2055">
+        <v>76</v>
+      </c>
       <c r="G2055">
         <f t="shared" si="32"/>
         <v>2054</v>
@@ -64770,6 +65832,9 @@
       <c r="E2056" t="s">
         <v>283</v>
       </c>
+      <c r="F2056">
+        <v>68</v>
+      </c>
       <c r="G2056">
         <f t="shared" si="32"/>
         <v>2055</v>
@@ -64791,6 +65856,9 @@
       <c r="E2057" t="s">
         <v>149</v>
       </c>
+      <c r="F2057">
+        <v>72</v>
+      </c>
       <c r="G2057">
         <f t="shared" si="32"/>
         <v>2056</v>
@@ -64812,6 +65880,9 @@
       <c r="E2058" t="s">
         <v>402</v>
       </c>
+      <c r="F2058">
+        <v>82</v>
+      </c>
       <c r="G2058">
         <f t="shared" si="32"/>
         <v>2057</v>
@@ -64833,6 +65904,9 @@
       <c r="E2059" t="s">
         <v>383</v>
       </c>
+      <c r="F2059">
+        <v>91</v>
+      </c>
       <c r="G2059">
         <f t="shared" si="32"/>
         <v>2058</v>
@@ -64854,6 +65928,9 @@
       <c r="E2060" t="s">
         <v>1067</v>
       </c>
+      <c r="F2060">
+        <v>87</v>
+      </c>
       <c r="G2060">
         <f t="shared" si="32"/>
         <v>2059</v>
@@ -64875,6 +65952,9 @@
       <c r="E2061" t="s">
         <v>4555</v>
       </c>
+      <c r="F2061">
+        <v>68</v>
+      </c>
       <c r="G2061">
         <f t="shared" si="32"/>
         <v>2060</v>
@@ -64896,6 +65976,9 @@
       <c r="E2062" t="s">
         <v>221</v>
       </c>
+      <c r="F2062">
+        <v>69</v>
+      </c>
       <c r="G2062">
         <f t="shared" si="32"/>
         <v>2061</v>
@@ -64917,6 +66000,9 @@
       <c r="E2063" t="s">
         <v>4560</v>
       </c>
+      <c r="F2063">
+        <v>77</v>
+      </c>
       <c r="G2063">
         <f t="shared" si="32"/>
         <v>2062</v>
@@ -64938,6 +66024,9 @@
       <c r="E2064" t="s">
         <v>24</v>
       </c>
+      <c r="F2064">
+        <v>73</v>
+      </c>
       <c r="G2064">
         <f t="shared" si="32"/>
         <v>2063</v>
@@ -64959,6 +66048,9 @@
       <c r="E2065" t="s">
         <v>9</v>
       </c>
+      <c r="F2065">
+        <v>86</v>
+      </c>
       <c r="G2065">
         <f t="shared" si="32"/>
         <v>2064</v>
@@ -64980,6 +66072,9 @@
       <c r="E2066" t="s">
         <v>1107</v>
       </c>
+      <c r="F2066">
+        <v>76</v>
+      </c>
       <c r="G2066">
         <f t="shared" si="32"/>
         <v>2065</v>
@@ -65001,6 +66096,9 @@
       <c r="E2067" t="s">
         <v>82</v>
       </c>
+      <c r="F2067">
+        <v>77</v>
+      </c>
       <c r="G2067">
         <f t="shared" si="32"/>
         <v>2066</v>
@@ -65022,6 +66120,9 @@
       <c r="E2068" t="s">
         <v>283</v>
       </c>
+      <c r="F2068">
+        <v>84</v>
+      </c>
       <c r="G2068">
         <f t="shared" si="32"/>
         <v>2067</v>
@@ -65043,6 +66144,9 @@
       <c r="E2069" t="s">
         <v>9</v>
       </c>
+      <c r="F2069">
+        <v>79</v>
+      </c>
       <c r="G2069">
         <f t="shared" si="32"/>
         <v>2068</v>
@@ -65064,6 +66168,9 @@
       <c r="E2070" t="s">
         <v>2596</v>
       </c>
+      <c r="F2070">
+        <v>66</v>
+      </c>
       <c r="G2070">
         <f t="shared" si="32"/>
         <v>2069</v>
@@ -65085,6 +66192,9 @@
       <c r="E2071" t="s">
         <v>99</v>
       </c>
+      <c r="F2071">
+        <v>73</v>
+      </c>
       <c r="G2071">
         <f t="shared" si="32"/>
         <v>2070</v>
@@ -65106,6 +66216,9 @@
       <c r="E2072" t="s">
         <v>1962</v>
       </c>
+      <c r="F2072">
+        <v>78</v>
+      </c>
       <c r="G2072">
         <f t="shared" si="32"/>
         <v>2071</v>
@@ -65127,6 +66240,9 @@
       <c r="E2073" t="s">
         <v>9</v>
       </c>
+      <c r="F2073">
+        <v>83</v>
+      </c>
       <c r="G2073">
         <f t="shared" si="32"/>
         <v>2072</v>
@@ -65148,6 +66264,9 @@
       <c r="E2074" t="s">
         <v>9</v>
       </c>
+      <c r="F2074">
+        <v>74</v>
+      </c>
       <c r="G2074">
         <f t="shared" si="32"/>
         <v>2073</v>
@@ -65169,6 +66288,9 @@
       <c r="E2075" t="s">
         <v>9</v>
       </c>
+      <c r="F2075">
+        <v>73</v>
+      </c>
       <c r="G2075">
         <f t="shared" si="32"/>
         <v>2074</v>
@@ -65190,6 +66312,9 @@
       <c r="E2076" t="s">
         <v>1009</v>
       </c>
+      <c r="F2076">
+        <v>68</v>
+      </c>
       <c r="G2076">
         <f t="shared" si="32"/>
         <v>2075</v>
@@ -65211,6 +66336,9 @@
       <c r="E2077" t="s">
         <v>68</v>
       </c>
+      <c r="F2077">
+        <v>83</v>
+      </c>
       <c r="G2077">
         <f t="shared" si="32"/>
         <v>2076</v>
@@ -65232,6 +66360,9 @@
       <c r="E2078" t="s">
         <v>283</v>
       </c>
+      <c r="F2078">
+        <v>72</v>
+      </c>
       <c r="G2078">
         <f t="shared" si="32"/>
         <v>2077</v>
@@ -65253,6 +66384,9 @@
       <c r="E2079" t="s">
         <v>9</v>
       </c>
+      <c r="F2079">
+        <v>63</v>
+      </c>
       <c r="G2079">
         <f t="shared" si="32"/>
         <v>2078</v>
@@ -65274,6 +66408,9 @@
       <c r="E2080" t="s">
         <v>24</v>
       </c>
+      <c r="F2080">
+        <v>71</v>
+      </c>
       <c r="G2080">
         <f t="shared" si="32"/>
         <v>2079</v>
@@ -65295,6 +66432,9 @@
       <c r="E2081" t="s">
         <v>794</v>
       </c>
+      <c r="F2081">
+        <v>73</v>
+      </c>
       <c r="G2081">
         <f t="shared" si="32"/>
         <v>2080</v>
@@ -65316,6 +66456,9 @@
       <c r="E2082" t="s">
         <v>4599</v>
       </c>
+      <c r="F2082">
+        <v>70</v>
+      </c>
       <c r="G2082">
         <f t="shared" si="32"/>
         <v>2081</v>
@@ -65331,8 +66474,14 @@
       <c r="C2083" t="s">
         <v>4600</v>
       </c>
+      <c r="D2083" s="1">
+        <v>33175</v>
+      </c>
       <c r="E2083" t="s">
         <v>9</v>
+      </c>
+      <c r="F2083">
+        <v>86</v>
       </c>
       <c r="G2083">
         <f t="shared" si="32"/>
@@ -65355,6 +66504,9 @@
       <c r="E2084" t="s">
         <v>146</v>
       </c>
+      <c r="F2084">
+        <v>78</v>
+      </c>
       <c r="G2084">
         <f t="shared" si="32"/>
         <v>2083</v>
@@ -65376,6 +66528,9 @@
       <c r="E2085" t="s">
         <v>283</v>
       </c>
+      <c r="F2085">
+        <v>79</v>
+      </c>
       <c r="G2085">
         <f t="shared" si="32"/>
         <v>2084</v>
@@ -65397,6 +66552,9 @@
       <c r="E2086" t="s">
         <v>749</v>
       </c>
+      <c r="F2086">
+        <v>92</v>
+      </c>
       <c r="G2086">
         <f t="shared" si="32"/>
         <v>2085</v>
@@ -65418,6 +66576,9 @@
       <c r="E2087" t="s">
         <v>283</v>
       </c>
+      <c r="F2087">
+        <v>89</v>
+      </c>
       <c r="G2087">
         <f t="shared" si="32"/>
         <v>2086</v>
@@ -65439,6 +66600,9 @@
       <c r="E2088" t="s">
         <v>734</v>
       </c>
+      <c r="F2088">
+        <v>69</v>
+      </c>
       <c r="G2088">
         <f t="shared" si="32"/>
         <v>2087</v>
@@ -65460,6 +66624,9 @@
       <c r="E2089" t="s">
         <v>1009</v>
       </c>
+      <c r="F2089">
+        <v>77</v>
+      </c>
       <c r="G2089">
         <f t="shared" si="32"/>
         <v>2088</v>
@@ -65481,6 +66648,9 @@
       <c r="E2090" t="s">
         <v>9</v>
       </c>
+      <c r="F2090">
+        <v>69</v>
+      </c>
       <c r="G2090">
         <f t="shared" si="32"/>
         <v>2089</v>
@@ -65502,6 +66672,9 @@
       <c r="E2091" t="s">
         <v>119</v>
       </c>
+      <c r="F2091">
+        <v>63</v>
+      </c>
       <c r="G2091">
         <f t="shared" si="32"/>
         <v>2090</v>
@@ -65523,6 +66696,9 @@
       <c r="E2092" t="s">
         <v>9</v>
       </c>
+      <c r="F2092">
+        <v>92</v>
+      </c>
       <c r="G2092">
         <f t="shared" si="32"/>
         <v>2091</v>
@@ -65544,6 +66720,9 @@
       <c r="E2093" t="s">
         <v>9</v>
       </c>
+      <c r="F2093">
+        <v>74</v>
+      </c>
       <c r="G2093">
         <f t="shared" si="32"/>
         <v>2092</v>
@@ -65565,6 +66744,9 @@
       <c r="E2094" t="s">
         <v>9</v>
       </c>
+      <c r="F2094">
+        <v>68</v>
+      </c>
       <c r="G2094">
         <f t="shared" si="32"/>
         <v>2093</v>
@@ -65586,6 +66768,9 @@
       <c r="E2095" t="s">
         <v>52</v>
       </c>
+      <c r="F2095">
+        <v>68</v>
+      </c>
       <c r="G2095">
         <f t="shared" si="32"/>
         <v>2094</v>
@@ -65607,6 +66792,9 @@
       <c r="E2096" t="s">
         <v>52</v>
       </c>
+      <c r="F2096">
+        <v>76</v>
+      </c>
       <c r="G2096">
         <f t="shared" si="32"/>
         <v>2095</v>
@@ -65628,6 +66816,9 @@
       <c r="E2097" t="s">
         <v>323</v>
       </c>
+      <c r="F2097">
+        <v>73</v>
+      </c>
       <c r="G2097">
         <f t="shared" si="32"/>
         <v>2096</v>
@@ -65649,6 +66840,9 @@
       <c r="E2098" t="s">
         <v>918</v>
       </c>
+      <c r="F2098">
+        <v>68</v>
+      </c>
       <c r="G2098">
         <f t="shared" si="32"/>
         <v>2097</v>
@@ -65670,6 +66864,9 @@
       <c r="E2099" t="s">
         <v>280</v>
       </c>
+      <c r="F2099">
+        <v>69</v>
+      </c>
       <c r="G2099">
         <f t="shared" si="32"/>
         <v>2098</v>
@@ -65691,6 +66888,9 @@
       <c r="E2100" t="s">
         <v>9</v>
       </c>
+      <c r="F2100">
+        <v>88</v>
+      </c>
       <c r="G2100">
         <f t="shared" si="32"/>
         <v>2099</v>
@@ -65712,6 +66912,9 @@
       <c r="E2101" t="s">
         <v>221</v>
       </c>
+      <c r="F2101">
+        <v>71</v>
+      </c>
       <c r="G2101">
         <f t="shared" si="32"/>
         <v>2100</v>
@@ -65733,6 +66936,9 @@
       <c r="E2102" t="s">
         <v>221</v>
       </c>
+      <c r="F2102">
+        <v>70</v>
+      </c>
       <c r="G2102">
         <f t="shared" si="32"/>
         <v>2101</v>
@@ -65754,6 +66960,9 @@
       <c r="E2103" t="s">
         <v>472</v>
       </c>
+      <c r="F2103">
+        <v>70</v>
+      </c>
       <c r="G2103">
         <f t="shared" si="32"/>
         <v>2102</v>
@@ -65775,6 +66984,9 @@
       <c r="E2104" t="s">
         <v>9</v>
       </c>
+      <c r="F2104">
+        <v>72</v>
+      </c>
       <c r="G2104">
         <f t="shared" si="32"/>
         <v>2103</v>
@@ -65796,6 +67008,9 @@
       <c r="E2105" t="s">
         <v>497</v>
       </c>
+      <c r="F2105">
+        <v>69</v>
+      </c>
       <c r="G2105">
         <f t="shared" si="32"/>
         <v>2104</v>
@@ -65817,6 +67032,9 @@
       <c r="E2106" t="s">
         <v>2188</v>
       </c>
+      <c r="F2106">
+        <v>77</v>
+      </c>
       <c r="G2106">
         <f t="shared" si="32"/>
         <v>2105</v>
@@ -65838,6 +67056,9 @@
       <c r="E2107" t="s">
         <v>146</v>
       </c>
+      <c r="F2107">
+        <v>75</v>
+      </c>
       <c r="G2107">
         <f t="shared" si="32"/>
         <v>2106</v>
@@ -65859,6 +67080,9 @@
       <c r="E2108" t="s">
         <v>35</v>
       </c>
+      <c r="F2108">
+        <v>71</v>
+      </c>
       <c r="G2108">
         <f t="shared" si="32"/>
         <v>2107</v>
@@ -65880,6 +67104,9 @@
       <c r="E2109" t="s">
         <v>323</v>
       </c>
+      <c r="F2109">
+        <v>66</v>
+      </c>
       <c r="G2109">
         <f t="shared" si="32"/>
         <v>2108</v>
@@ -65901,6 +67128,9 @@
       <c r="E2110" t="s">
         <v>251</v>
       </c>
+      <c r="F2110">
+        <v>79</v>
+      </c>
       <c r="G2110">
         <f t="shared" si="32"/>
         <v>2109</v>
@@ -65922,6 +67152,9 @@
       <c r="E2111" t="s">
         <v>918</v>
       </c>
+      <c r="F2111">
+        <v>71</v>
+      </c>
       <c r="G2111">
         <f t="shared" si="32"/>
         <v>2110</v>
@@ -65943,6 +67176,9 @@
       <c r="E2112" t="s">
         <v>256</v>
       </c>
+      <c r="F2112">
+        <v>74</v>
+      </c>
       <c r="G2112">
         <f t="shared" si="32"/>
         <v>2111</v>
@@ -65964,6 +67200,9 @@
       <c r="E2113" t="s">
         <v>1093</v>
       </c>
+      <c r="F2113">
+        <v>83</v>
+      </c>
       <c r="G2113">
         <f t="shared" si="32"/>
         <v>2112</v>
@@ -65985,6 +67224,9 @@
       <c r="E2114" t="s">
         <v>9</v>
       </c>
+      <c r="F2114">
+        <v>83</v>
+      </c>
       <c r="G2114">
         <f t="shared" si="32"/>
         <v>2113</v>
@@ -66006,6 +67248,9 @@
       <c r="E2115" t="s">
         <v>9</v>
       </c>
+      <c r="F2115">
+        <v>68</v>
+      </c>
       <c r="G2115">
         <f t="shared" si="32"/>
         <v>2114</v>
@@ -66027,6 +67272,9 @@
       <c r="E2116" t="s">
         <v>9</v>
       </c>
+      <c r="F2116">
+        <v>73</v>
+      </c>
       <c r="G2116">
         <f t="shared" si="32"/>
         <v>2115</v>
@@ -66048,6 +67296,9 @@
       <c r="E2117" t="s">
         <v>41</v>
       </c>
+      <c r="F2117">
+        <v>78</v>
+      </c>
       <c r="G2117">
         <f t="shared" ref="G2117:G2180" si="33">SUM(G2116 +1)</f>
         <v>2116</v>
@@ -66069,6 +67320,9 @@
       <c r="E2118" t="s">
         <v>198</v>
       </c>
+      <c r="F2118">
+        <v>78</v>
+      </c>
       <c r="G2118">
         <f t="shared" si="33"/>
         <v>2117</v>
@@ -66090,6 +67344,9 @@
       <c r="E2119" t="s">
         <v>79</v>
       </c>
+      <c r="F2119">
+        <v>72</v>
+      </c>
       <c r="G2119">
         <f t="shared" si="33"/>
         <v>2118</v>
@@ -66111,6 +67368,9 @@
       <c r="E2120" t="s">
         <v>9</v>
       </c>
+      <c r="F2120">
+        <v>73</v>
+      </c>
       <c r="G2120">
         <f t="shared" si="33"/>
         <v>2119</v>
@@ -66132,6 +67392,9 @@
       <c r="E2121" t="s">
         <v>9</v>
       </c>
+      <c r="F2121">
+        <v>73</v>
+      </c>
       <c r="G2121">
         <f t="shared" si="33"/>
         <v>2120</v>
@@ -66153,6 +67416,9 @@
       <c r="E2122" t="s">
         <v>1241</v>
       </c>
+      <c r="F2122">
+        <v>74</v>
+      </c>
       <c r="G2122">
         <f t="shared" si="33"/>
         <v>2121</v>
@@ -66174,6 +67440,9 @@
       <c r="E2123" t="s">
         <v>4682</v>
       </c>
+      <c r="F2123">
+        <v>68</v>
+      </c>
       <c r="G2123">
         <f t="shared" si="33"/>
         <v>2122</v>
@@ -66195,6 +67464,9 @@
       <c r="E2124" t="s">
         <v>82</v>
       </c>
+      <c r="F2124">
+        <v>98</v>
+      </c>
       <c r="G2124">
         <f t="shared" si="33"/>
         <v>2123</v>
@@ -66216,6 +67488,9 @@
       <c r="E2125" t="s">
         <v>749</v>
       </c>
+      <c r="F2125">
+        <v>94</v>
+      </c>
       <c r="G2125">
         <f t="shared" si="33"/>
         <v>2124</v>
@@ -66237,6 +67512,9 @@
       <c r="E2126" t="s">
         <v>190</v>
       </c>
+      <c r="F2126">
+        <v>83</v>
+      </c>
       <c r="G2126">
         <f t="shared" si="33"/>
         <v>2125</v>
@@ -66258,6 +67536,9 @@
       <c r="E2127" t="s">
         <v>3529</v>
       </c>
+      <c r="F2127">
+        <v>81</v>
+      </c>
       <c r="G2127">
         <f t="shared" si="33"/>
         <v>2126</v>
@@ -66279,6 +67560,9 @@
       <c r="E2128" t="s">
         <v>9</v>
       </c>
+      <c r="F2128">
+        <v>87</v>
+      </c>
       <c r="G2128">
         <f t="shared" si="33"/>
         <v>2127</v>
@@ -66300,6 +67584,9 @@
       <c r="E2129" t="s">
         <v>1492</v>
       </c>
+      <c r="F2129">
+        <v>77</v>
+      </c>
       <c r="G2129">
         <f t="shared" si="33"/>
         <v>2128</v>
@@ -66321,6 +67608,9 @@
       <c r="E2130" t="s">
         <v>68</v>
       </c>
+      <c r="F2130">
+        <v>78</v>
+      </c>
       <c r="G2130">
         <f t="shared" si="33"/>
         <v>2129</v>
@@ -66342,6 +67632,9 @@
       <c r="E2131" t="s">
         <v>635</v>
       </c>
+      <c r="F2131">
+        <v>73</v>
+      </c>
       <c r="G2131">
         <f t="shared" si="33"/>
         <v>2130</v>
@@ -66363,6 +67656,9 @@
       <c r="E2132" t="s">
         <v>9</v>
       </c>
+      <c r="F2132">
+        <v>83</v>
+      </c>
       <c r="G2132">
         <f t="shared" si="33"/>
         <v>2131</v>
@@ -66384,6 +67680,9 @@
       <c r="E2133" t="s">
         <v>712</v>
       </c>
+      <c r="F2133">
+        <v>78</v>
+      </c>
       <c r="G2133">
         <f t="shared" si="33"/>
         <v>2132</v>
@@ -66405,6 +67704,9 @@
       <c r="E2134" t="s">
         <v>2672</v>
       </c>
+      <c r="F2134">
+        <v>73</v>
+      </c>
       <c r="G2134">
         <f t="shared" si="33"/>
         <v>2133</v>
@@ -66426,6 +67728,9 @@
       <c r="E2135" t="s">
         <v>24</v>
       </c>
+      <c r="F2135">
+        <v>78</v>
+      </c>
       <c r="G2135">
         <f t="shared" si="33"/>
         <v>2134</v>
@@ -66447,6 +67752,9 @@
       <c r="E2136" t="s">
         <v>4709</v>
       </c>
+      <c r="F2136">
+        <v>64</v>
+      </c>
       <c r="G2136">
         <f t="shared" si="33"/>
         <v>2135</v>
@@ -66468,6 +67776,9 @@
       <c r="E2137" t="s">
         <v>129</v>
       </c>
+      <c r="F2137">
+        <v>74</v>
+      </c>
       <c r="G2137">
         <f t="shared" si="33"/>
         <v>2136</v>
@@ -66489,6 +67800,9 @@
       <c r="E2138" t="s">
         <v>9</v>
       </c>
+      <c r="F2138">
+        <v>74</v>
+      </c>
       <c r="G2138">
         <f t="shared" si="33"/>
         <v>2137</v>
@@ -66510,6 +67824,9 @@
       <c r="E2139" t="s">
         <v>271</v>
       </c>
+      <c r="F2139">
+        <v>76</v>
+      </c>
       <c r="G2139">
         <f t="shared" si="33"/>
         <v>2138</v>
@@ -66531,6 +67848,9 @@
       <c r="E2140" t="s">
         <v>9</v>
       </c>
+      <c r="F2140">
+        <v>75</v>
+      </c>
       <c r="G2140">
         <f t="shared" si="33"/>
         <v>2139</v>
@@ -66552,6 +67872,9 @@
       <c r="E2141" t="s">
         <v>79</v>
       </c>
+      <c r="F2141">
+        <v>73</v>
+      </c>
       <c r="G2141">
         <f t="shared" si="33"/>
         <v>2140</v>
@@ -66573,6 +67896,9 @@
       <c r="E2142" t="s">
         <v>4722</v>
       </c>
+      <c r="F2142">
+        <v>68</v>
+      </c>
       <c r="G2142">
         <f t="shared" si="33"/>
         <v>2141</v>
@@ -66594,6 +67920,9 @@
       <c r="E2143" t="s">
         <v>221</v>
       </c>
+      <c r="F2143">
+        <v>66</v>
+      </c>
       <c r="G2143">
         <f t="shared" si="33"/>
         <v>2142</v>
@@ -66615,6 +67944,9 @@
       <c r="E2144" t="s">
         <v>9</v>
       </c>
+      <c r="F2144">
+        <v>86</v>
+      </c>
       <c r="G2144">
         <f t="shared" si="33"/>
         <v>2143</v>
@@ -66636,6 +67968,9 @@
       <c r="E2145" t="s">
         <v>221</v>
       </c>
+      <c r="F2145">
+        <v>60</v>
+      </c>
       <c r="G2145">
         <f t="shared" si="33"/>
         <v>2144</v>
@@ -66657,6 +67992,9 @@
       <c r="E2146" t="s">
         <v>99</v>
       </c>
+      <c r="F2146">
+        <v>71</v>
+      </c>
       <c r="G2146">
         <f t="shared" si="33"/>
         <v>2145</v>
@@ -66678,6 +68016,9 @@
       <c r="E2147" t="s">
         <v>9</v>
       </c>
+      <c r="F2147">
+        <v>73</v>
+      </c>
       <c r="G2147">
         <f t="shared" si="33"/>
         <v>2146</v>
@@ -66699,6 +68040,9 @@
       <c r="E2148" t="s">
         <v>68</v>
       </c>
+      <c r="F2148">
+        <v>86</v>
+      </c>
       <c r="G2148">
         <f t="shared" si="33"/>
         <v>2147</v>
@@ -66720,6 +68064,9 @@
       <c r="E2149" t="s">
         <v>198</v>
       </c>
+      <c r="F2149">
+        <v>93</v>
+      </c>
       <c r="G2149">
         <f t="shared" si="33"/>
         <v>2148</v>
@@ -66741,6 +68088,9 @@
       <c r="E2150" t="s">
         <v>9</v>
       </c>
+      <c r="F2150">
+        <v>78</v>
+      </c>
       <c r="G2150">
         <f t="shared" si="33"/>
         <v>2149</v>
@@ -66762,6 +68112,9 @@
       <c r="E2151" t="s">
         <v>9</v>
       </c>
+      <c r="F2151">
+        <v>82</v>
+      </c>
       <c r="G2151">
         <f t="shared" si="33"/>
         <v>2150</v>
@@ -66783,6 +68136,9 @@
       <c r="E2152" t="s">
         <v>4743</v>
       </c>
+      <c r="F2152">
+        <v>84</v>
+      </c>
       <c r="G2152">
         <f t="shared" si="33"/>
         <v>2151</v>
@@ -66804,6 +68160,9 @@
       <c r="E2153" t="s">
         <v>190</v>
       </c>
+      <c r="F2153">
+        <v>73</v>
+      </c>
       <c r="G2153">
         <f t="shared" si="33"/>
         <v>2152</v>
@@ -66825,6 +68184,9 @@
       <c r="E2154" t="s">
         <v>2522</v>
       </c>
+      <c r="F2154">
+        <v>77</v>
+      </c>
       <c r="G2154">
         <f t="shared" si="33"/>
         <v>2153</v>
@@ -66846,6 +68208,9 @@
       <c r="E2155" t="s">
         <v>283</v>
       </c>
+      <c r="F2155">
+        <v>84</v>
+      </c>
       <c r="G2155">
         <f t="shared" si="33"/>
         <v>2154</v>
@@ -66867,6 +68232,9 @@
       <c r="E2156" t="s">
         <v>1523</v>
       </c>
+      <c r="F2156">
+        <v>79</v>
+      </c>
       <c r="G2156">
         <f t="shared" si="33"/>
         <v>2155</v>
@@ -66888,6 +68256,9 @@
       <c r="E2157" t="s">
         <v>655</v>
       </c>
+      <c r="F2157">
+        <v>78</v>
+      </c>
       <c r="G2157">
         <f t="shared" si="33"/>
         <v>2156</v>
@@ -66909,6 +68280,9 @@
       <c r="E2158" t="s">
         <v>9</v>
       </c>
+      <c r="F2158">
+        <v>68</v>
+      </c>
       <c r="G2158">
         <f t="shared" si="33"/>
         <v>2157</v>
@@ -66930,6 +68304,9 @@
       <c r="E2159" t="s">
         <v>4758</v>
       </c>
+      <c r="F2159">
+        <v>74</v>
+      </c>
       <c r="G2159">
         <f t="shared" si="33"/>
         <v>2158</v>
@@ -66951,6 +68328,9 @@
       <c r="E2160" t="s">
         <v>1053</v>
       </c>
+      <c r="F2160">
+        <v>73</v>
+      </c>
       <c r="G2160">
         <f t="shared" si="33"/>
         <v>2159</v>
@@ -66972,6 +68352,9 @@
       <c r="E2161" t="s">
         <v>2394</v>
       </c>
+      <c r="F2161">
+        <v>83</v>
+      </c>
       <c r="G2161">
         <f t="shared" si="33"/>
         <v>2160</v>
@@ -66993,6 +68376,9 @@
       <c r="E2162" t="s">
         <v>518</v>
       </c>
+      <c r="F2162">
+        <v>86</v>
+      </c>
       <c r="G2162">
         <f t="shared" si="33"/>
         <v>2161</v>
@@ -67014,6 +68400,9 @@
       <c r="E2163" t="s">
         <v>9</v>
       </c>
+      <c r="F2163">
+        <v>82</v>
+      </c>
       <c r="G2163">
         <f t="shared" si="33"/>
         <v>2162</v>
@@ -67035,6 +68424,9 @@
       <c r="E2164" t="s">
         <v>783</v>
       </c>
+      <c r="F2164">
+        <v>77</v>
+      </c>
       <c r="G2164">
         <f t="shared" si="33"/>
         <v>2163</v>
@@ -67056,6 +68448,9 @@
       <c r="E2165" t="s">
         <v>9</v>
       </c>
+      <c r="F2165">
+        <v>83</v>
+      </c>
       <c r="G2165">
         <f t="shared" si="33"/>
         <v>2164</v>
@@ -67077,6 +68472,9 @@
       <c r="E2166" t="s">
         <v>2329</v>
       </c>
+      <c r="F2166">
+        <v>77</v>
+      </c>
       <c r="G2166">
         <f t="shared" si="33"/>
         <v>2165</v>
@@ -67098,6 +68496,9 @@
       <c r="E2167" t="s">
         <v>221</v>
       </c>
+      <c r="F2167">
+        <v>74</v>
+      </c>
       <c r="G2167">
         <f t="shared" si="33"/>
         <v>2166</v>
@@ -67119,6 +68520,9 @@
       <c r="E2168" t="s">
         <v>218</v>
       </c>
+      <c r="F2168">
+        <v>78</v>
+      </c>
       <c r="G2168">
         <f t="shared" si="33"/>
         <v>2167</v>
@@ -67140,6 +68544,9 @@
       <c r="E2169" t="s">
         <v>24</v>
       </c>
+      <c r="F2169">
+        <v>73</v>
+      </c>
       <c r="G2169">
         <f t="shared" si="33"/>
         <v>2168</v>
@@ -67161,6 +68568,9 @@
       <c r="E2170" t="s">
         <v>218</v>
       </c>
+      <c r="F2170">
+        <v>72</v>
+      </c>
       <c r="G2170">
         <f t="shared" si="33"/>
         <v>2169</v>
@@ -67182,6 +68592,9 @@
       <c r="E2171" t="s">
         <v>218</v>
       </c>
+      <c r="F2171">
+        <v>77</v>
+      </c>
       <c r="G2171">
         <f t="shared" si="33"/>
         <v>2170</v>
@@ -67203,6 +68616,9 @@
       <c r="E2172" t="s">
         <v>251</v>
       </c>
+      <c r="F2172">
+        <v>73</v>
+      </c>
       <c r="G2172">
         <f t="shared" si="33"/>
         <v>2171</v>
@@ -67224,6 +68640,9 @@
       <c r="E2173" t="s">
         <v>712</v>
       </c>
+      <c r="F2173">
+        <v>83</v>
+      </c>
       <c r="G2173">
         <f t="shared" si="33"/>
         <v>2172</v>
@@ -67245,6 +68664,9 @@
       <c r="E2174" t="s">
         <v>221</v>
       </c>
+      <c r="F2174">
+        <v>73</v>
+      </c>
       <c r="G2174">
         <f t="shared" si="33"/>
         <v>2173</v>
@@ -67266,6 +68688,9 @@
       <c r="E2175" t="s">
         <v>46</v>
       </c>
+      <c r="F2175">
+        <v>73</v>
+      </c>
       <c r="G2175">
         <f t="shared" si="33"/>
         <v>2174</v>
@@ -67287,6 +68712,9 @@
       <c r="E2176" t="s">
         <v>198</v>
       </c>
+      <c r="F2176">
+        <v>77</v>
+      </c>
       <c r="G2176">
         <f t="shared" si="33"/>
         <v>2175</v>
@@ -67308,6 +68736,9 @@
       <c r="E2177" t="s">
         <v>251</v>
       </c>
+      <c r="F2177">
+        <v>73</v>
+      </c>
       <c r="G2177">
         <f t="shared" si="33"/>
         <v>2176</v>
@@ -67329,6 +68760,9 @@
       <c r="E2178" t="s">
         <v>1115</v>
       </c>
+      <c r="F2178">
+        <v>68</v>
+      </c>
       <c r="G2178">
         <f t="shared" si="33"/>
         <v>2177</v>
@@ -67350,6 +68784,9 @@
       <c r="E2179" t="s">
         <v>323</v>
       </c>
+      <c r="F2179">
+        <v>95</v>
+      </c>
       <c r="G2179">
         <f t="shared" si="33"/>
         <v>2178</v>
@@ -67371,6 +68808,9 @@
       <c r="E2180" t="s">
         <v>9</v>
       </c>
+      <c r="F2180">
+        <v>73</v>
+      </c>
       <c r="G2180">
         <f t="shared" si="33"/>
         <v>2179</v>
@@ -67392,6 +68832,9 @@
       <c r="E2181" t="s">
         <v>190</v>
       </c>
+      <c r="F2181">
+        <v>74</v>
+      </c>
       <c r="G2181">
         <f t="shared" ref="G2181:G2244" si="34">SUM(G2180 +1)</f>
         <v>2180</v>
@@ -67413,6 +68856,9 @@
       <c r="E2182" t="s">
         <v>9</v>
       </c>
+      <c r="F2182">
+        <v>82</v>
+      </c>
       <c r="G2182">
         <f t="shared" si="34"/>
         <v>2181</v>
@@ -67434,6 +68880,9 @@
       <c r="E2183" t="s">
         <v>283</v>
       </c>
+      <c r="F2183">
+        <v>84</v>
+      </c>
       <c r="G2183">
         <f t="shared" si="34"/>
         <v>2182</v>
@@ -67455,6 +68904,9 @@
       <c r="E2184" t="s">
         <v>9</v>
       </c>
+      <c r="F2184">
+        <v>77</v>
+      </c>
       <c r="G2184">
         <f t="shared" si="34"/>
         <v>2183</v>
@@ -67476,6 +68928,9 @@
       <c r="E2185" t="s">
         <v>102</v>
       </c>
+      <c r="F2185">
+        <v>73</v>
+      </c>
       <c r="G2185">
         <f t="shared" si="34"/>
         <v>2184</v>
@@ -67497,6 +68952,9 @@
       <c r="E2186" t="s">
         <v>9</v>
       </c>
+      <c r="F2186">
+        <v>78</v>
+      </c>
       <c r="G2186">
         <f t="shared" si="34"/>
         <v>2185</v>
@@ -67518,6 +68976,9 @@
       <c r="E2187" t="s">
         <v>9</v>
       </c>
+      <c r="F2187">
+        <v>83</v>
+      </c>
       <c r="G2187">
         <f t="shared" si="34"/>
         <v>2186</v>
@@ -67539,6 +69000,9 @@
       <c r="E2188" t="s">
         <v>9</v>
       </c>
+      <c r="F2188">
+        <v>69</v>
+      </c>
       <c r="G2188">
         <f t="shared" si="34"/>
         <v>2187</v>
@@ -67560,6 +69024,9 @@
       <c r="E2189" t="s">
         <v>9</v>
       </c>
+      <c r="F2189">
+        <v>72</v>
+      </c>
       <c r="G2189">
         <f t="shared" si="34"/>
         <v>2188</v>
@@ -67581,6 +69048,9 @@
       <c r="E2190" t="s">
         <v>9</v>
       </c>
+      <c r="F2190">
+        <v>68</v>
+      </c>
       <c r="G2190">
         <f t="shared" si="34"/>
         <v>2189</v>
@@ -67602,6 +69072,9 @@
       <c r="E2191" t="s">
         <v>73</v>
       </c>
+      <c r="F2191">
+        <v>74</v>
+      </c>
       <c r="G2191">
         <f t="shared" si="34"/>
         <v>2190</v>
@@ -67623,6 +69096,9 @@
       <c r="E2192" t="s">
         <v>3269</v>
       </c>
+      <c r="F2192">
+        <v>71</v>
+      </c>
       <c r="G2192">
         <f t="shared" si="34"/>
         <v>2191</v>
@@ -67644,6 +69120,9 @@
       <c r="E2193" t="s">
         <v>386</v>
       </c>
+      <c r="F2193">
+        <v>74</v>
+      </c>
       <c r="G2193">
         <f t="shared" si="34"/>
         <v>2192</v>
@@ -67665,6 +69144,9 @@
       <c r="E2194" t="s">
         <v>700</v>
       </c>
+      <c r="F2194">
+        <v>87</v>
+      </c>
       <c r="G2194">
         <f t="shared" si="34"/>
         <v>2193</v>
@@ -67686,6 +69168,9 @@
       <c r="E2195" t="s">
         <v>63</v>
       </c>
+      <c r="F2195">
+        <v>79</v>
+      </c>
       <c r="G2195">
         <f t="shared" si="34"/>
         <v>2194</v>
@@ -67707,6 +69192,9 @@
       <c r="E2196" t="s">
         <v>9</v>
       </c>
+      <c r="F2196">
+        <v>78</v>
+      </c>
       <c r="G2196">
         <f t="shared" si="34"/>
         <v>2195</v>
@@ -67728,6 +69216,9 @@
       <c r="E2197" t="s">
         <v>190</v>
       </c>
+      <c r="F2197">
+        <v>67</v>
+      </c>
       <c r="G2197">
         <f t="shared" si="34"/>
         <v>2196</v>
@@ -67749,6 +69240,9 @@
       <c r="E2198" t="s">
         <v>1009</v>
       </c>
+      <c r="F2198">
+        <v>86</v>
+      </c>
       <c r="G2198">
         <f t="shared" si="34"/>
         <v>2197</v>
@@ -67770,6 +69264,9 @@
       <c r="E2199" t="s">
         <v>102</v>
       </c>
+      <c r="F2199">
+        <v>84</v>
+      </c>
       <c r="G2199">
         <f t="shared" si="34"/>
         <v>2198</v>
@@ -67791,6 +69288,9 @@
       <c r="E2200" t="s">
         <v>4841</v>
       </c>
+      <c r="F2200">
+        <v>74</v>
+      </c>
       <c r="G2200">
         <f t="shared" si="34"/>
         <v>2199</v>
@@ -73774,5 +75274,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>